--- a/0_0_Data/3_Naive_Forecaster_Data/2_Combined_YoY_Component_Forecasts/dt_full_yoy_PUBCON_AR_50_9.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/2_Combined_YoY_Component_Forecasts/dt_full_yoy_PUBCON_AR_50_9.xlsx
@@ -369,202 +369,193 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BA24"/>
+  <dimension ref="A1:AZ22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:53">
+    <row r="1" spans="1:52">
       <c r="B1" s="1">
-        <v>39400</v>
+        <v>39583</v>
       </c>
       <c r="C1" s="1">
-        <v>39583</v>
+        <v>39765</v>
       </c>
       <c r="D1" s="1">
-        <v>39765</v>
+        <v>39948</v>
       </c>
       <c r="E1" s="1">
-        <v>39948</v>
+        <v>40130</v>
       </c>
       <c r="F1" s="1">
-        <v>40130</v>
+        <v>40310</v>
       </c>
       <c r="G1" s="1">
-        <v>40310</v>
+        <v>40494</v>
       </c>
       <c r="H1" s="1">
-        <v>40494</v>
+        <v>40676</v>
       </c>
       <c r="I1" s="1">
-        <v>40676</v>
+        <v>40862</v>
       </c>
       <c r="J1" s="1">
-        <v>40862</v>
+        <v>41044</v>
       </c>
       <c r="K1" s="1">
-        <v>41044</v>
+        <v>41228</v>
       </c>
       <c r="L1" s="1">
-        <v>41228</v>
+        <v>41409</v>
       </c>
       <c r="M1" s="1">
-        <v>41409</v>
+        <v>41592</v>
       </c>
       <c r="N1" s="1">
-        <v>41592</v>
+        <v>41774</v>
       </c>
       <c r="O1" s="1">
-        <v>41774</v>
+        <v>41957</v>
       </c>
       <c r="P1" s="1">
-        <v>41957</v>
+        <v>42137</v>
       </c>
       <c r="Q1" s="1">
-        <v>42137</v>
+        <v>42321</v>
       </c>
       <c r="R1" s="1">
-        <v>42321</v>
+        <v>42503</v>
       </c>
       <c r="S1" s="1">
-        <v>42503</v>
+        <v>42689</v>
       </c>
       <c r="T1" s="1">
-        <v>42689</v>
+        <v>42867</v>
       </c>
       <c r="U1" s="1">
-        <v>42867</v>
+        <v>43053</v>
       </c>
       <c r="V1" s="1">
-        <v>43053</v>
+        <v>43145</v>
       </c>
       <c r="W1" s="1">
-        <v>43145</v>
+        <v>43235</v>
       </c>
       <c r="X1" s="1">
-        <v>43235</v>
+        <v>43326</v>
       </c>
       <c r="Y1" s="1">
-        <v>43326</v>
+        <v>43418</v>
       </c>
       <c r="Z1" s="1">
-        <v>43418</v>
+        <v>43510</v>
       </c>
       <c r="AA1" s="1">
-        <v>43510</v>
+        <v>43600</v>
       </c>
       <c r="AB1" s="1">
-        <v>43600</v>
+        <v>43691</v>
       </c>
       <c r="AC1" s="1">
-        <v>43691</v>
+        <v>43783</v>
       </c>
       <c r="AD1" s="1">
-        <v>43783</v>
+        <v>43875</v>
       </c>
       <c r="AE1" s="1">
-        <v>43875</v>
+        <v>43966</v>
       </c>
       <c r="AF1" s="1">
-        <v>43966</v>
+        <v>44068</v>
       </c>
       <c r="AG1" s="1">
-        <v>44068</v>
+        <v>44159</v>
       </c>
       <c r="AH1" s="1">
-        <v>44159</v>
+        <v>44251</v>
       </c>
       <c r="AI1" s="1">
-        <v>44251</v>
+        <v>44341</v>
       </c>
       <c r="AJ1" s="1">
-        <v>44341</v>
+        <v>44432</v>
       </c>
       <c r="AK1" s="1">
-        <v>44432</v>
+        <v>44525</v>
       </c>
       <c r="AL1" s="1">
-        <v>44525</v>
+        <v>44617</v>
       </c>
       <c r="AM1" s="1">
-        <v>44617</v>
+        <v>44706</v>
       </c>
       <c r="AN1" s="1">
-        <v>44706</v>
+        <v>44798</v>
       </c>
       <c r="AO1" s="1">
-        <v>44798</v>
+        <v>44890</v>
       </c>
       <c r="AP1" s="1">
-        <v>44890</v>
+        <v>44981</v>
       </c>
       <c r="AQ1" s="1">
-        <v>44981</v>
+        <v>45071</v>
       </c>
       <c r="AR1" s="1">
-        <v>45071</v>
+        <v>45163</v>
       </c>
       <c r="AS1" s="1">
-        <v>45163</v>
+        <v>45254</v>
       </c>
       <c r="AT1" s="1">
-        <v>45254</v>
+        <v>45345</v>
       </c>
       <c r="AU1" s="1">
-        <v>45345</v>
+        <v>45436</v>
       </c>
       <c r="AV1" s="1">
-        <v>45436</v>
+        <v>45534</v>
       </c>
       <c r="AW1" s="1">
-        <v>45534</v>
+        <v>45618</v>
       </c>
       <c r="AX1" s="1">
-        <v>45618</v>
+        <v>45713</v>
       </c>
       <c r="AY1" s="1">
-        <v>45713</v>
+        <v>45800</v>
       </c>
       <c r="AZ1" s="1">
-        <v>45800</v>
-      </c>
-      <c r="BA1" s="1">
         <v>45891</v>
       </c>
     </row>
-    <row r="2" spans="1:53">
+    <row r="2" spans="1:52">
       <c r="A2" s="1">
         <v>39813</v>
       </c>
     </row>
-    <row r="3" spans="1:53">
+    <row r="3" spans="1:52">
       <c r="A3" s="1">
         <v>40178</v>
       </c>
-      <c r="C3">
-        <v>1.747591372647683</v>
-      </c>
-      <c r="D3">
-        <v>1.550936023497163</v>
-      </c>
       <c r="E3">
-        <v>1.834695583582491</v>
+        <v>1.834695583582535</v>
       </c>
       <c r="F3">
-        <v>1.834695583582491</v>
+        <v>1.834695583582535</v>
       </c>
       <c r="G3">
-        <v>1.834695583582491</v>
+        <v>1.834695583582535</v>
       </c>
       <c r="H3">
-        <v>1.834695583582491</v>
+        <v>1.834695583582535</v>
       </c>
       <c r="I3">
-        <v>1.834695583582491</v>
+        <v>1.834695583582535</v>
       </c>
       <c r="J3">
-        <v>1.834695583582491</v>
+        <v>1.834695583582535</v>
       </c>
       <c r="K3">
         <v>1.834695583582491</v>
@@ -692,37 +683,22 @@
       <c r="AZ3">
         <v>1.834695583582491</v>
       </c>
-      <c r="BA3">
-        <v>1.834695583582491</v>
-      </c>
     </row>
-    <row r="4" spans="1:53">
+    <row r="4" spans="1:52">
       <c r="A4" s="1">
         <v>40543</v>
       </c>
-      <c r="C4">
-        <v>1.773354194370391</v>
-      </c>
-      <c r="D4">
-        <v>1.699076577619318</v>
-      </c>
-      <c r="E4">
-        <v>1.96900122769168</v>
-      </c>
-      <c r="F4">
-        <v>1.889082028157629</v>
-      </c>
       <c r="G4">
-        <v>1.767835936772166</v>
+        <v>1.767835936772144</v>
       </c>
       <c r="H4">
-        <v>1.767835936772166</v>
+        <v>1.767835936772144</v>
       </c>
       <c r="I4">
-        <v>1.767835936772166</v>
+        <v>1.767835936772144</v>
       </c>
       <c r="J4">
-        <v>1.767835936772166</v>
+        <v>1.767835936772144</v>
       </c>
       <c r="K4">
         <v>1.767835936772166</v>
@@ -850,37 +826,16 @@
       <c r="AZ4">
         <v>1.767835936772166</v>
       </c>
-      <c r="BA4">
-        <v>1.767835936772166</v>
-      </c>
     </row>
-    <row r="5" spans="1:53">
+    <row r="5" spans="1:52">
       <c r="A5" s="1">
         <v>40908</v>
       </c>
-      <c r="C5">
-        <v>1.746644412127485</v>
-      </c>
-      <c r="D5">
-        <v>1.605114678837638</v>
-      </c>
-      <c r="E5">
-        <v>1.630289360344461</v>
-      </c>
-      <c r="F5">
-        <v>1.349188138511392</v>
-      </c>
-      <c r="G5">
-        <v>0.6540062440080208</v>
-      </c>
-      <c r="H5">
-        <v>1.079453537436748</v>
-      </c>
       <c r="I5">
-        <v>1.074400434091016</v>
+        <v>1.074400434091038</v>
       </c>
       <c r="J5">
-        <v>1.074400434091016</v>
+        <v>1.074400434091038</v>
       </c>
       <c r="K5">
         <v>1.074400434091016</v>
@@ -1008,32 +963,11 @@
       <c r="AZ5">
         <v>1.074400434091016</v>
       </c>
-      <c r="BA5">
-        <v>1.074400434091016</v>
-      </c>
     </row>
-    <row r="6" spans="1:53">
+    <row r="6" spans="1:52">
       <c r="A6" s="1">
         <v>41274</v>
       </c>
-      <c r="E6">
-        <v>1.790591193319635</v>
-      </c>
-      <c r="F6">
-        <v>1.679465248220335</v>
-      </c>
-      <c r="G6">
-        <v>0.6964767834049201</v>
-      </c>
-      <c r="H6">
-        <v>1.435269437880682</v>
-      </c>
-      <c r="I6">
-        <v>1.266814459660814</v>
-      </c>
-      <c r="J6">
-        <v>0.9325232237207937</v>
-      </c>
       <c r="K6">
         <v>0.9212998022035679</v>
       </c>
@@ -1160,31 +1094,16 @@
       <c r="AZ6">
         <v>0.9212998022035679</v>
       </c>
-      <c r="BA6">
-        <v>0.9212998022035679</v>
-      </c>
     </row>
-    <row r="7" spans="1:53">
+    <row r="7" spans="1:52">
       <c r="A7" s="1">
         <v>41639</v>
       </c>
-      <c r="G7">
-        <v>1.129705985329021</v>
-      </c>
-      <c r="H7">
-        <v>1.515928370536601</v>
-      </c>
-      <c r="I7">
-        <v>1.263396620747725</v>
-      </c>
-      <c r="J7">
-        <v>1.466614758543638</v>
-      </c>
       <c r="K7">
-        <v>1.148586223271275</v>
+        <v>1.274704633957136</v>
       </c>
       <c r="L7">
-        <v>0.9867800023970696</v>
+        <v>1.097054137926201</v>
       </c>
       <c r="M7">
         <v>1.141837882844188</v>
@@ -1306,31 +1225,22 @@
       <c r="AZ7">
         <v>1.141837882844188</v>
       </c>
-      <c r="BA7">
-        <v>1.141837882844188</v>
-      </c>
     </row>
-    <row r="8" spans="1:53">
+    <row r="8" spans="1:52">
       <c r="A8" s="1">
         <v>42004</v>
       </c>
-      <c r="I8">
-        <v>1.430149826338512</v>
-      </c>
-      <c r="J8">
-        <v>1.406790206756847</v>
-      </c>
       <c r="K8">
-        <v>1.164991910711377</v>
+        <v>1.369652951216827</v>
       </c>
       <c r="L8">
-        <v>0.9737714784041618</v>
+        <v>1.37755776875883</v>
       </c>
       <c r="M8">
-        <v>1.138072517022626</v>
+        <v>1.404348988410131</v>
       </c>
       <c r="N8">
-        <v>1.372244540826872</v>
+        <v>1.385527545913412</v>
       </c>
       <c r="O8">
         <v>1.335361538769475</v>
@@ -1446,31 +1356,25 @@
       <c r="AZ8">
         <v>1.335361538769475</v>
       </c>
-      <c r="BA8">
-        <v>1.335361538769475</v>
-      </c>
     </row>
-    <row r="9" spans="1:53">
+    <row r="9" spans="1:52">
       <c r="A9" s="1">
         <v>42369</v>
       </c>
-      <c r="K9">
-        <v>1.311069971375933</v>
-      </c>
       <c r="L9">
-        <v>1.244357737497226</v>
+        <v>1.340476821534331</v>
       </c>
       <c r="M9">
-        <v>1.171369425124591</v>
+        <v>1.353022330671849</v>
       </c>
       <c r="N9">
-        <v>1.327543491406336</v>
+        <v>1.329814931661888</v>
       </c>
       <c r="O9">
-        <v>1.13791261307421</v>
+        <v>1.269653854937691</v>
       </c>
       <c r="P9">
-        <v>1.286349615500271</v>
+        <v>1.296301936385214</v>
       </c>
       <c r="Q9">
         <v>1.202048372526998</v>
@@ -1580,31 +1484,25 @@
       <c r="AZ9">
         <v>1.202048372526998</v>
       </c>
-      <c r="BA9">
-        <v>1.202048372526998</v>
-      </c>
     </row>
-    <row r="10" spans="1:53">
+    <row r="10" spans="1:52">
       <c r="A10" s="1">
         <v>42735</v>
       </c>
-      <c r="M10">
-        <v>1.291411087453032</v>
-      </c>
       <c r="N10">
-        <v>1.344617125982905</v>
+        <v>1.346941224959064</v>
       </c>
       <c r="O10">
-        <v>1.281181588730873</v>
+        <v>1.332063260659644</v>
       </c>
       <c r="P10">
-        <v>1.281077610483394</v>
+        <v>1.355477993452414</v>
       </c>
       <c r="Q10">
-        <v>1.239356233827293</v>
+        <v>1.253742200752095</v>
       </c>
       <c r="R10">
-        <v>2.809180028785785</v>
+        <v>2.441628883342295</v>
       </c>
       <c r="S10">
         <v>2.677488680362305</v>
@@ -1708,31 +1606,25 @@
       <c r="AZ10">
         <v>2.677488680362305</v>
       </c>
-      <c r="BA10">
-        <v>2.677488680362305</v>
-      </c>
     </row>
-    <row r="11" spans="1:53">
+    <row r="11" spans="1:52">
       <c r="A11" s="1">
         <v>43100</v>
       </c>
-      <c r="O11">
-        <v>1.310003185936148</v>
-      </c>
       <c r="P11">
-        <v>1.328300149650041</v>
+        <v>1.337624433084184</v>
       </c>
       <c r="Q11">
-        <v>1.235852566257889</v>
+        <v>1.314367320499477</v>
       </c>
       <c r="R11">
-        <v>2.559848003339504</v>
+        <v>1.386547975635688</v>
       </c>
       <c r="S11">
-        <v>2.112732612705837</v>
+        <v>1.805615391969595</v>
       </c>
       <c r="T11">
-        <v>2.633898103989218</v>
+        <v>2.565764046666463</v>
       </c>
       <c r="U11">
         <v>2.466954516646402</v>
@@ -1830,37 +1722,31 @@
       <c r="AZ11">
         <v>2.466954516646402</v>
       </c>
-      <c r="BA11">
-        <v>2.466954516646402</v>
-      </c>
     </row>
-    <row r="12" spans="1:53">
+    <row r="12" spans="1:52">
       <c r="A12" s="1">
         <v>43465</v>
       </c>
-      <c r="Q12">
-        <v>1.304113625290104</v>
-      </c>
       <c r="R12">
-        <v>1.412041751073856</v>
+        <v>1.458707167655282</v>
       </c>
       <c r="S12">
-        <v>1.437311308396438</v>
+        <v>1.519875552374694</v>
       </c>
       <c r="T12">
-        <v>2.229440112512426</v>
+        <v>1.833587970352424</v>
       </c>
       <c r="U12">
-        <v>1.304525109075838</v>
+        <v>1.661541796722577</v>
       </c>
       <c r="V12">
-        <v>1.299687914466841</v>
+        <v>1.376993627314671</v>
       </c>
       <c r="W12">
-        <v>1.249164505240175</v>
+        <v>1.263447557103259</v>
       </c>
       <c r="X12">
-        <v>1.401189216021326</v>
+        <v>1.362852986880547</v>
       </c>
       <c r="Y12">
         <v>1.401189216021326</v>
@@ -1946,46 +1832,37 @@
       <c r="AZ12">
         <v>1.401189216021326</v>
       </c>
-      <c r="BA12">
-        <v>1.401189216021326</v>
-      </c>
     </row>
-    <row r="13" spans="1:53">
+    <row r="13" spans="1:52">
       <c r="A13" s="1">
         <v>43830</v>
       </c>
-      <c r="R13">
-        <v>1.547060080253937</v>
-      </c>
-      <c r="S13">
-        <v>1.542152113358775</v>
-      </c>
       <c r="T13">
-        <v>1.923062960558575</v>
+        <v>1.628446342551038</v>
       </c>
       <c r="U13">
-        <v>1.168630372637725</v>
+        <v>1.602599207906596</v>
       </c>
       <c r="V13">
-        <v>1.205410808099949</v>
+        <v>1.553425185274571</v>
       </c>
       <c r="W13">
-        <v>1.483396971945128</v>
+        <v>1.485511920344451</v>
       </c>
       <c r="X13">
-        <v>1.888152810688548</v>
+        <v>1.635045928803081</v>
       </c>
       <c r="Y13">
-        <v>1.888152810688548</v>
+        <v>1.815016201748643</v>
       </c>
       <c r="Z13">
-        <v>2.193307704714287</v>
+        <v>1.868356483387124</v>
       </c>
       <c r="AA13">
-        <v>2.143477242895631</v>
+        <v>2.117022522597423</v>
       </c>
       <c r="AB13">
-        <v>2.217570159472659</v>
+        <v>2.244229492550187</v>
       </c>
       <c r="AC13">
         <v>2.217567799050979</v>
@@ -2059,52 +1936,40 @@
       <c r="AZ13">
         <v>2.217567799050979</v>
       </c>
-      <c r="BA13">
-        <v>2.217567799050979</v>
-      </c>
     </row>
-    <row r="14" spans="1:53">
+    <row r="14" spans="1:52">
       <c r="A14" s="1">
         <v>44196</v>
       </c>
-      <c r="T14">
-        <v>1.714591569966051</v>
-      </c>
-      <c r="U14">
-        <v>1.518186100794794</v>
-      </c>
-      <c r="V14">
-        <v>1.302378901694823</v>
-      </c>
       <c r="W14">
-        <v>1.388080902872413</v>
+        <v>1.556242995633506</v>
       </c>
       <c r="X14">
-        <v>1.685692629906166</v>
+        <v>1.576696032422364</v>
       </c>
       <c r="Y14">
-        <v>1.502367273702343</v>
+        <v>1.59264109209869</v>
       </c>
       <c r="Z14">
-        <v>1.608114819648332</v>
+        <v>1.600603483732033</v>
       </c>
       <c r="AA14">
-        <v>1.700992538849677</v>
+        <v>1.745834498329324</v>
       </c>
       <c r="AB14">
-        <v>2.055817427361806</v>
+        <v>1.944926006147352</v>
       </c>
       <c r="AC14">
-        <v>2.081314808299584</v>
+        <v>1.810449264563152</v>
       </c>
       <c r="AD14">
-        <v>2.127197886948307</v>
+        <v>2.005372766276703</v>
       </c>
       <c r="AE14">
-        <v>2.331396859582546</v>
+        <v>2.149400276001101</v>
       </c>
       <c r="AF14">
-        <v>2.408621835913149</v>
+        <v>2.139672475020404</v>
       </c>
       <c r="AG14">
         <v>2.139672475020404</v>
@@ -2166,58 +2031,40 @@
       <c r="AZ14">
         <v>2.139672475020404</v>
       </c>
-      <c r="BA14">
-        <v>2.139672475020404</v>
-      </c>
     </row>
-    <row r="15" spans="1:53">
+    <row r="15" spans="1:52">
       <c r="A15" s="1">
         <v>44561</v>
       </c>
-      <c r="V15">
-        <v>1.507162929475214</v>
-      </c>
-      <c r="W15">
-        <v>1.534965591556015</v>
-      </c>
-      <c r="X15">
-        <v>1.611313512699564</v>
-      </c>
-      <c r="Y15">
-        <v>1.282943375232204</v>
-      </c>
-      <c r="Z15">
-        <v>1.603146403367672</v>
-      </c>
       <c r="AA15">
-        <v>1.575388735192473</v>
+        <v>1.634385169952313</v>
       </c>
       <c r="AB15">
-        <v>1.580329726598806</v>
+        <v>1.659350806287785</v>
       </c>
       <c r="AC15">
-        <v>1.82202512518006</v>
+        <v>1.646012149683163</v>
       </c>
       <c r="AD15">
-        <v>2.025071719147609</v>
+        <v>1.679039075934385</v>
       </c>
       <c r="AE15">
-        <v>2.135511120197231</v>
+        <v>1.76475225558832</v>
       </c>
       <c r="AF15">
-        <v>2.797576752784936</v>
+        <v>1.674992401025355</v>
       </c>
       <c r="AG15">
-        <v>1.87485413606896</v>
+        <v>2.128328071999674</v>
       </c>
       <c r="AH15">
-        <v>1.925031960518697</v>
+        <v>2.273520076663971</v>
       </c>
       <c r="AI15">
-        <v>2.537289456116776</v>
+        <v>2.453568910971748</v>
       </c>
       <c r="AJ15">
-        <v>2.435392224674993</v>
+        <v>2.100991693542231</v>
       </c>
       <c r="AK15">
         <v>2.100991693542231</v>
@@ -2267,61 +2114,40 @@
       <c r="AZ15">
         <v>2.100991693542231</v>
       </c>
-      <c r="BA15">
-        <v>2.100991693542231</v>
-      </c>
     </row>
-    <row r="16" spans="1:53">
+    <row r="16" spans="1:52">
       <c r="A16" s="1">
         <v>44926</v>
       </c>
-      <c r="Y16">
-        <v>1.605002082975315</v>
-      </c>
-      <c r="Z16">
-        <v>1.666584107740565</v>
-      </c>
-      <c r="AA16">
-        <v>1.665790276818724</v>
-      </c>
-      <c r="AB16">
-        <v>1.692996395630031</v>
-      </c>
-      <c r="AC16">
-        <v>1.735015092369419</v>
-      </c>
-      <c r="AD16">
-        <v>1.875406794462742</v>
-      </c>
       <c r="AE16">
-        <v>1.897789686342954</v>
+        <v>1.683216193639248</v>
       </c>
       <c r="AF16">
-        <v>1.62515156179095</v>
+        <v>1.676986128059976</v>
       </c>
       <c r="AG16">
-        <v>1.609625625599986</v>
+        <v>1.787113358069314</v>
       </c>
       <c r="AH16">
-        <v>0.9527777399432669</v>
+        <v>1.827015901454287</v>
       </c>
       <c r="AI16">
-        <v>1.300696220295894</v>
+        <v>2.131436976903012</v>
       </c>
       <c r="AJ16">
-        <v>0.3173162112820371</v>
+        <v>0.5797569954799853</v>
       </c>
       <c r="AK16">
-        <v>-0.65631506589936</v>
+        <v>1.11435041103376</v>
       </c>
       <c r="AL16">
-        <v>0.2423318260859064</v>
+        <v>0.7380952286421882</v>
       </c>
       <c r="AM16">
-        <v>0.268099369888164</v>
+        <v>0.812682184439506</v>
       </c>
       <c r="AN16">
-        <v>0.7452509897571069</v>
+        <v>0.8967077601845341</v>
       </c>
       <c r="AO16">
         <v>0.8967077601845341</v>
@@ -2359,58 +2185,40 @@
       <c r="AZ16">
         <v>0.8967077601845341</v>
       </c>
-      <c r="BA16">
-        <v>0.8967077601845341</v>
-      </c>
     </row>
-    <row r="17" spans="1:53">
+    <row r="17" spans="1:52">
       <c r="A17" s="1">
         <v>45291</v>
       </c>
-      <c r="AC17">
-        <v>1.652201862146074</v>
-      </c>
-      <c r="AD17">
-        <v>1.69040503892528</v>
-      </c>
-      <c r="AE17">
-        <v>1.719145524730648</v>
-      </c>
-      <c r="AF17">
-        <v>1.740926502696616</v>
-      </c>
-      <c r="AG17">
-        <v>1.64419700066154</v>
-      </c>
       <c r="AH17">
-        <v>0.8816537378592892</v>
+        <v>1.72853332973002</v>
       </c>
       <c r="AI17">
-        <v>0.7530895544060945</v>
+        <v>1.716088761125456</v>
       </c>
       <c r="AJ17">
-        <v>1.455721297050161</v>
+        <v>1.635325088332373</v>
       </c>
       <c r="AK17">
-        <v>0.3755441235464341</v>
+        <v>1.639897598917872</v>
       </c>
       <c r="AL17">
-        <v>-0.3154328121712013</v>
+        <v>1.421947874507667</v>
       </c>
       <c r="AM17">
-        <v>0.1986953960088078</v>
+        <v>1.556352278772266</v>
       </c>
       <c r="AN17">
-        <v>1.028725335207503</v>
+        <v>1.891749670939347</v>
       </c>
       <c r="AO17">
-        <v>1.278801470866475</v>
+        <v>0.3338851812143995</v>
       </c>
       <c r="AP17">
-        <v>0.4168642513032284</v>
+        <v>-0.4131792716363547</v>
       </c>
       <c r="AQ17">
-        <v>-0.3093403056675159</v>
+        <v>0.9940067218177528</v>
       </c>
       <c r="AR17">
         <v>0.782207885866093</v>
@@ -2439,61 +2247,43 @@
       <c r="AZ17">
         <v>0.782207885866093</v>
       </c>
-      <c r="BA17">
-        <v>0.782207885866093</v>
-      </c>
     </row>
-    <row r="18" spans="1:53">
+    <row r="18" spans="1:52">
       <c r="A18" s="1">
         <v>45657</v>
       </c>
-      <c r="AG18">
-        <v>1.718440957860445</v>
-      </c>
-      <c r="AH18">
-        <v>1.535887234814348</v>
-      </c>
-      <c r="AI18">
-        <v>1.605603815077328</v>
-      </c>
-      <c r="AJ18">
-        <v>1.625615708613726</v>
-      </c>
-      <c r="AK18">
-        <v>0.6876758003365291</v>
-      </c>
       <c r="AL18">
-        <v>0.9823786499195464</v>
+        <v>1.586020868139215</v>
       </c>
       <c r="AM18">
-        <v>0.9944233054085982</v>
+        <v>1.63672950100644</v>
       </c>
       <c r="AN18">
-        <v>1.338078004052412</v>
+        <v>1.696552096670256</v>
       </c>
       <c r="AO18">
-        <v>1.356060158541905</v>
+        <v>1.536226507366623</v>
       </c>
       <c r="AP18">
-        <v>1.354879040433699</v>
+        <v>1.173782198617435</v>
       </c>
       <c r="AQ18">
-        <v>0.9273921178055478</v>
+        <v>1.820779918499094</v>
       </c>
       <c r="AR18">
-        <v>2.321849008702292</v>
+        <v>1.655852464312013</v>
       </c>
       <c r="AS18">
-        <v>2.093035950778344</v>
+        <v>2.228542839642689</v>
       </c>
       <c r="AT18">
-        <v>1.787977508297245</v>
+        <v>1.805571054927801</v>
       </c>
       <c r="AU18">
-        <v>1.356274578414407</v>
+        <v>1.634555928116921</v>
       </c>
       <c r="AV18">
-        <v>1.533774754225425</v>
+        <v>1.508385007449875</v>
       </c>
       <c r="AW18">
         <v>1.508385007449875</v>
@@ -2507,173 +2297,88 @@
       <c r="AZ18">
         <v>1.508385007449875</v>
       </c>
-      <c r="BA18">
-        <v>1.508385007449875</v>
-      </c>
     </row>
-    <row r="19" spans="1:53">
+    <row r="19" spans="1:52">
       <c r="A19" s="1">
         <v>46022</v>
       </c>
-      <c r="AK19">
-        <v>1.390298975069926</v>
-      </c>
-      <c r="AL19">
-        <v>1.427602512315174</v>
-      </c>
-      <c r="AM19">
-        <v>1.444298418801293</v>
-      </c>
-      <c r="AN19">
-        <v>1.615402286740797</v>
-      </c>
-      <c r="AO19">
-        <v>1.38584678577065</v>
-      </c>
       <c r="AP19">
-        <v>1.14056442550472</v>
+        <v>1.487216163900373</v>
       </c>
       <c r="AQ19">
-        <v>1.323459633596857</v>
+        <v>1.708417111863691</v>
       </c>
       <c r="AR19">
-        <v>1.287825488416727</v>
+        <v>1.700077181632453</v>
       </c>
       <c r="AS19">
-        <v>0.9530418804713836</v>
+        <v>1.712693234104812</v>
       </c>
       <c r="AT19">
-        <v>1.281673763033253</v>
+        <v>1.632015075917925</v>
       </c>
       <c r="AU19">
-        <v>0.8027039751693055</v>
+        <v>1.554016159863814</v>
       </c>
       <c r="AV19">
-        <v>1.069697780284606</v>
+        <v>1.310740881193517</v>
       </c>
       <c r="AW19">
-        <v>0.6266647386402369</v>
+        <v>0.9823016603409229</v>
       </c>
       <c r="AX19">
-        <v>0.5010010003247523</v>
+        <v>0.6395223689078522</v>
       </c>
       <c r="AY19">
-        <v>0.2751124249843251</v>
+        <v>0.6231570351797</v>
       </c>
       <c r="AZ19">
         <v>0.6014263374495288</v>
       </c>
-      <c r="BA19">
-        <v>0.6014263374495288</v>
-      </c>
     </row>
-    <row r="20" spans="1:53">
+    <row r="20" spans="1:52">
       <c r="A20" s="1">
         <v>46387</v>
       </c>
-      <c r="AO20">
-        <v>1.700349708890636</v>
-      </c>
-      <c r="AP20">
-        <v>1.630590291172984</v>
-      </c>
-      <c r="AQ20">
-        <v>1.536745740013989</v>
-      </c>
-      <c r="AR20">
-        <v>1.750684683608239</v>
-      </c>
-      <c r="AS20">
-        <v>1.238715132264034</v>
-      </c>
       <c r="AT20">
-        <v>1.652395978910914</v>
+        <v>1.667247652000525</v>
       </c>
       <c r="AU20">
-        <v>1.615672019577219</v>
+        <v>1.654472590788325</v>
       </c>
       <c r="AV20">
-        <v>1.544897842680215</v>
+        <v>1.642837775344463</v>
       </c>
       <c r="AW20">
-        <v>1.18027954441291</v>
+        <v>1.669808334748235</v>
       </c>
       <c r="AX20">
-        <v>1.028944203989823</v>
+        <v>1.590970324046337</v>
       </c>
       <c r="AY20">
-        <v>0.5763579119224094</v>
+        <v>1.581524829939718</v>
       </c>
       <c r="AZ20">
-        <v>1.686249836453868</v>
-      </c>
-      <c r="BA20">
-        <v>1.711639661404685</v>
+        <v>1.539180932382078</v>
       </c>
     </row>
-    <row r="21" spans="1:53">
+    <row r="21" spans="1:52">
       <c r="A21" s="1">
         <v>46752</v>
       </c>
-      <c r="AS21">
-        <v>1.685826193704365</v>
-      </c>
-      <c r="AT21">
-        <v>1.700340909301645</v>
-      </c>
-      <c r="AU21">
-        <v>1.622963854370818</v>
-      </c>
-      <c r="AV21">
-        <v>1.657749827233834</v>
-      </c>
-      <c r="AW21">
-        <v>1.391183374240046</v>
-      </c>
       <c r="AX21">
-        <v>1.178455059463235</v>
+        <v>1.613721511063226</v>
       </c>
       <c r="AY21">
-        <v>1.117224156720731</v>
+        <v>1.611425865651817</v>
       </c>
       <c r="AZ21">
-        <v>1.9725075725463</v>
-      </c>
-      <c r="BA21">
-        <v>1.963309208904307</v>
+        <v>1.611459379842684</v>
       </c>
     </row>
-    <row r="22" spans="1:53">
+    <row r="22" spans="1:52">
       <c r="A22" s="1">
         <v>47118</v>
-      </c>
-      <c r="AW22">
-        <v>1.613993101906042</v>
-      </c>
-      <c r="AX22">
-        <v>1.583923012210997</v>
-      </c>
-      <c r="AY22">
-        <v>1.522201318014815</v>
-      </c>
-      <c r="AZ22">
-        <v>1.677738434744724</v>
-      </c>
-      <c r="BA22">
-        <v>1.635606549824353</v>
-      </c>
-    </row>
-    <row r="23" spans="1:53">
-      <c r="A23" s="1">
-        <v>47483</v>
-      </c>
-      <c r="BA23">
-        <v>1.66706916315893</v>
-      </c>
-    </row>
-    <row r="24" spans="1:53">
-      <c r="A24" s="1">
-        <v>47848</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/3_Naive_Forecaster_Data/2_Combined_YoY_Component_Forecasts/dt_full_yoy_PUBCON_AR_50_9.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/2_Combined_YoY_Component_Forecasts/dt_full_yoy_PUBCON_AR_50_9.xlsx
@@ -2332,7 +2332,7 @@
         <v>2.155932165770968</v>
       </c>
       <c r="AG17">
-        <v>2.980209378995857</v>
+        <v>3.002689729985786</v>
       </c>
       <c r="AH17">
         <v>3.647228437274408</v>
@@ -2415,19 +2415,19 @@
         <v>1.805141163113122</v>
       </c>
       <c r="AG18">
-        <v>2.653391228709334</v>
+        <v>2.717337804233377</v>
       </c>
       <c r="AH18">
-        <v>3.474365686630398</v>
+        <v>3.747212465804828</v>
       </c>
       <c r="AI18">
-        <v>1.906805170974435</v>
+        <v>1.862551092269715</v>
       </c>
       <c r="AJ18">
-        <v>2.443967114785739</v>
+        <v>2.250958781244572</v>
       </c>
       <c r="AK18">
-        <v>1.954146674711188</v>
+        <v>2.162762949176789</v>
       </c>
       <c r="AL18">
         <v>2.777797690741424</v>
@@ -2486,31 +2486,31 @@
         <v>1.962646141252966</v>
       </c>
       <c r="AG19">
-        <v>2.082528618731505</v>
+        <v>2.072091309408597</v>
       </c>
       <c r="AH19">
-        <v>2.220786001087638</v>
+        <v>2.29747771798714</v>
       </c>
       <c r="AI19">
-        <v>1.938263709207333</v>
+        <v>2.008389843939007</v>
       </c>
       <c r="AJ19">
-        <v>2.026008136667135</v>
+        <v>1.736577049860766</v>
       </c>
       <c r="AK19">
-        <v>1.667670056759474</v>
+        <v>2.210980515016114</v>
       </c>
       <c r="AL19">
-        <v>1.742844348069261</v>
+        <v>2.824945225847975</v>
       </c>
       <c r="AM19">
-        <v>1.467237762893392</v>
+        <v>1.844973267139771</v>
       </c>
       <c r="AN19">
-        <v>0.388123216496683</v>
+        <v>0.448965795177636</v>
       </c>
       <c r="AO19">
-        <v>2.69102598245059</v>
+        <v>2.344479533229382</v>
       </c>
       <c r="AP19">
         <v>0.6994919452575576</v>
@@ -2553,38 +2553,35 @@
       <c r="A20" s="1">
         <v>45291</v>
       </c>
-      <c r="AI20">
-        <v>1.929867076599834</v>
-      </c>
       <c r="AJ20">
-        <v>1.942671808312491</v>
+        <v>1.913069916960008</v>
       </c>
       <c r="AK20">
-        <v>1.840213928502821</v>
+        <v>1.938464288906783</v>
       </c>
       <c r="AL20">
-        <v>2.009987920667888</v>
+        <v>1.980109320952783</v>
       </c>
       <c r="AM20">
-        <v>1.862063279188941</v>
+        <v>1.987865029049285</v>
       </c>
       <c r="AN20">
-        <v>1.819907598678561</v>
+        <v>1.807989101611551</v>
       </c>
       <c r="AO20">
-        <v>3.239034933968399</v>
+        <v>2.678665099633859</v>
       </c>
       <c r="AP20">
-        <v>0.5651273241891186</v>
+        <v>1.804067895915273</v>
       </c>
       <c r="AQ20">
-        <v>0.2809429127725194</v>
+        <v>0.9086884146237262</v>
       </c>
       <c r="AR20">
-        <v>-2.811030211656218</v>
+        <v>-3.096730754930321</v>
       </c>
       <c r="AS20">
-        <v>-1.669605379075589</v>
+        <v>-1.544852385424433</v>
       </c>
       <c r="AT20">
         <v>-1.432689847121871</v>
@@ -2615,38 +2612,35 @@
       <c r="A21" s="1">
         <v>45657</v>
       </c>
-      <c r="AM21">
-        <v>1.907228126079086</v>
-      </c>
       <c r="AN21">
-        <v>1.902363127860363</v>
+        <v>1.835152331140488</v>
       </c>
       <c r="AO21">
-        <v>2.221820703896493</v>
+        <v>2.132983436508784</v>
       </c>
       <c r="AP21">
-        <v>1.972011890424996</v>
+        <v>1.91368455720391</v>
       </c>
       <c r="AQ21">
-        <v>1.721404396148163</v>
+        <v>1.858034977419876</v>
       </c>
       <c r="AR21">
-        <v>0.8407670860975047</v>
+        <v>0.5284333133635188</v>
       </c>
       <c r="AS21">
-        <v>0.6305126186323617</v>
+        <v>0.9116752238737647</v>
       </c>
       <c r="AT21">
-        <v>0.4518870186319468</v>
+        <v>0.6746136605076947</v>
       </c>
       <c r="AU21">
-        <v>1.069839250900739</v>
+        <v>1.37654878977862</v>
       </c>
       <c r="AV21">
-        <v>1.250641979737566</v>
+        <v>1.477411815263086</v>
       </c>
       <c r="AW21">
-        <v>1.780300968358017</v>
+        <v>1.824327384084601</v>
       </c>
       <c r="AX21">
         <v>2.033479419175133</v>
@@ -2665,78 +2659,69 @@
       <c r="A22" s="1">
         <v>46022</v>
       </c>
-      <c r="AQ22">
-        <v>1.820006213460323</v>
-      </c>
       <c r="AR22">
-        <v>1.491732128084666</v>
+        <v>1.465880344954984</v>
       </c>
       <c r="AS22">
-        <v>1.596004825550223</v>
+        <v>1.621946240991656</v>
       </c>
       <c r="AT22">
-        <v>1.60821326961893</v>
+        <v>1.621474731069594</v>
       </c>
       <c r="AU22">
-        <v>1.634674340565567</v>
+        <v>1.701027207901151</v>
       </c>
       <c r="AV22">
-        <v>1.466559393695466</v>
+        <v>1.648748338197037</v>
       </c>
       <c r="AW22">
-        <v>1.762346671645298</v>
+        <v>1.824511239428506</v>
       </c>
       <c r="AX22">
-        <v>1.959987726090251</v>
+        <v>2.146365108912285</v>
       </c>
       <c r="AY22">
-        <v>2.97447584856072</v>
+        <v>3.24986482706644</v>
       </c>
       <c r="AZ22">
-        <v>2.302179720973463</v>
+        <v>2.414613509548702</v>
       </c>
       <c r="BA22">
-        <v>2.481068287768839</v>
+        <v>2.496198905957447</v>
       </c>
     </row>
     <row r="23" spans="1:53">
       <c r="A23" s="1">
         <v>46387</v>
       </c>
-      <c r="AU23">
-        <v>1.69578808159101</v>
-      </c>
       <c r="AV23">
-        <v>1.711344953249139</v>
+        <v>1.749422701360315</v>
       </c>
       <c r="AW23">
-        <v>1.797056809143549</v>
+        <v>1.783650567679107</v>
       </c>
       <c r="AX23">
-        <v>1.872010323543605</v>
+        <v>1.857636889919068</v>
       </c>
       <c r="AY23">
-        <v>1.953339169714385</v>
+        <v>2.001743795688449</v>
       </c>
       <c r="AZ23">
-        <v>1.805984941845473</v>
+        <v>1.862575447557324</v>
       </c>
       <c r="BA23">
-        <v>1.908500198348873</v>
+        <v>1.931176570713755</v>
       </c>
     </row>
     <row r="24" spans="1:53">
       <c r="A24" s="1">
         <v>46752</v>
       </c>
-      <c r="AY24">
-        <v>2.011633045324457</v>
-      </c>
       <c r="AZ24">
-        <v>1.985851203918942</v>
+        <v>1.961192770159159</v>
       </c>
       <c r="BA24">
-        <v>2.014471287802655</v>
+        <v>2.010482122409574</v>
       </c>
     </row>
     <row r="25" spans="1:53">

--- a/0_0_Data/3_Naive_Forecaster_Data/2_Combined_YoY_Component_Forecasts/dt_full_yoy_PUBCON_AR_50_9.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/2_Combined_YoY_Component_Forecasts/dt_full_yoy_PUBCON_AR_50_9.xlsx
@@ -369,7 +369,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BA25"/>
+  <dimension ref="A1:BA22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -535,2197 +535,1876 @@
     </row>
     <row r="2" spans="1:53">
       <c r="A2" s="1">
-        <v>38717</v>
+        <v>39813</v>
       </c>
     </row>
     <row r="3" spans="1:53">
       <c r="A3" s="1">
-        <v>39082</v>
+        <v>40178</v>
+      </c>
+      <c r="F3">
+        <v>2.533533936850563</v>
+      </c>
+      <c r="G3">
+        <v>3.301378284238377</v>
+      </c>
+      <c r="H3">
+        <v>2.91440374919274</v>
+      </c>
+      <c r="I3">
+        <v>2.81184912859318</v>
+      </c>
+      <c r="J3">
+        <v>3.311198277644523</v>
+      </c>
+      <c r="K3">
+        <v>3.311198277644523</v>
+      </c>
+      <c r="L3">
+        <v>3.311198277644523</v>
+      </c>
+      <c r="M3">
+        <v>3.311198277644523</v>
+      </c>
+      <c r="N3">
+        <v>3.311198277644523</v>
+      </c>
+      <c r="O3">
+        <v>3.311198277644523</v>
+      </c>
+      <c r="P3">
+        <v>3.311198277644523</v>
+      </c>
+      <c r="Q3">
+        <v>3.311198277644523</v>
+      </c>
+      <c r="R3">
+        <v>3.311198277644523</v>
+      </c>
+      <c r="S3">
+        <v>3.311198277644523</v>
+      </c>
+      <c r="T3">
+        <v>3.311198277644523</v>
+      </c>
+      <c r="U3">
+        <v>3.311198277644523</v>
+      </c>
+      <c r="V3">
+        <v>3.311198277644523</v>
+      </c>
+      <c r="W3">
+        <v>3.311198277644523</v>
+      </c>
+      <c r="X3">
+        <v>3.311198277644523</v>
+      </c>
+      <c r="Y3">
+        <v>3.311198277644523</v>
+      </c>
+      <c r="Z3">
+        <v>3.311198277644523</v>
+      </c>
+      <c r="AA3">
+        <v>3.311198277644523</v>
+      </c>
+      <c r="AB3">
+        <v>3.311198277644523</v>
+      </c>
+      <c r="AC3">
+        <v>3.311198277644523</v>
+      </c>
+      <c r="AD3">
+        <v>3.311198277644523</v>
+      </c>
+      <c r="AE3">
+        <v>3.311198277644523</v>
+      </c>
+      <c r="AF3">
+        <v>3.311198277644523</v>
+      </c>
+      <c r="AG3">
+        <v>3.311198277644523</v>
+      </c>
+      <c r="AH3">
+        <v>3.311198277644523</v>
+      </c>
+      <c r="AI3">
+        <v>3.311198277644523</v>
+      </c>
+      <c r="AJ3">
+        <v>3.311198277644523</v>
+      </c>
+      <c r="AK3">
+        <v>3.311198277644523</v>
+      </c>
+      <c r="AL3">
+        <v>3.311198277644523</v>
+      </c>
+      <c r="AM3">
+        <v>3.311198277644523</v>
+      </c>
+      <c r="AN3">
+        <v>3.311198277644523</v>
+      </c>
+      <c r="AO3">
+        <v>3.311198277644523</v>
+      </c>
+      <c r="AP3">
+        <v>3.311198277644523</v>
+      </c>
+      <c r="AQ3">
+        <v>3.311198277644523</v>
+      </c>
+      <c r="AR3">
+        <v>3.311198277644523</v>
+      </c>
+      <c r="AS3">
+        <v>3.311198277644523</v>
+      </c>
+      <c r="AT3">
+        <v>3.311198277644523</v>
+      </c>
+      <c r="AU3">
+        <v>3.311198277644523</v>
+      </c>
+      <c r="AV3">
+        <v>3.311198277644523</v>
+      </c>
+      <c r="AW3">
+        <v>3.311198277644523</v>
+      </c>
+      <c r="AX3">
+        <v>3.311198277644523</v>
+      </c>
+      <c r="AY3">
+        <v>3.311198277644523</v>
+      </c>
+      <c r="AZ3">
+        <v>3.311198277644523</v>
+      </c>
+      <c r="BA3">
+        <v>3.311198277644523</v>
       </c>
     </row>
     <row r="4" spans="1:53">
       <c r="A4" s="1">
-        <v>39447</v>
-      </c>
-      <c r="B4">
-        <v>1.75539628881467</v>
-      </c>
-      <c r="C4">
-        <v>1.961221950981917</v>
-      </c>
-      <c r="D4">
-        <v>1.916016605030779</v>
-      </c>
-      <c r="E4">
-        <v>1.840904387006614</v>
-      </c>
-      <c r="F4">
-        <v>1.482570748730949</v>
+        <v>40543</v>
       </c>
       <c r="G4">
-        <v>1.482570748730971</v>
+        <v>2.208165160720954</v>
       </c>
       <c r="H4">
-        <v>1.482570748730971</v>
+        <v>2.088987486264915</v>
       </c>
       <c r="I4">
-        <v>1.482570748730971</v>
+        <v>2.088206305536122</v>
       </c>
       <c r="J4">
-        <v>1.482570748730971</v>
+        <v>2.201049854143089</v>
       </c>
       <c r="K4">
-        <v>1.482570748730971</v>
+        <v>2.201049854143089</v>
       </c>
       <c r="L4">
-        <v>1.482570748730971</v>
+        <v>2.295764853811622</v>
       </c>
       <c r="M4">
-        <v>1.482570748730971</v>
+        <v>2.295764853811622</v>
       </c>
       <c r="N4">
-        <v>1.482570748730971</v>
+        <v>2.295764853811622</v>
       </c>
       <c r="O4">
-        <v>1.482570748730971</v>
+        <v>2.295764853811622</v>
       </c>
       <c r="P4">
-        <v>1.482570748730971</v>
+        <v>2.295764853811622</v>
       </c>
       <c r="Q4">
-        <v>1.482570748730971</v>
+        <v>2.295764853811622</v>
       </c>
       <c r="R4">
-        <v>1.482570748730971</v>
+        <v>2.295764853811622</v>
       </c>
       <c r="S4">
-        <v>1.482570748730971</v>
+        <v>2.295764853811622</v>
       </c>
       <c r="T4">
-        <v>1.482570748730971</v>
+        <v>2.295764853811622</v>
       </c>
       <c r="U4">
-        <v>1.482570748730971</v>
+        <v>2.295764853811622</v>
       </c>
       <c r="V4">
-        <v>1.482570748730971</v>
+        <v>2.295764853811622</v>
       </c>
       <c r="W4">
-        <v>1.482570748730971</v>
+        <v>2.295764853811622</v>
       </c>
       <c r="X4">
-        <v>1.482570748730971</v>
+        <v>2.295764853811622</v>
       </c>
       <c r="Y4">
-        <v>1.482570748730971</v>
+        <v>2.295764853811622</v>
       </c>
       <c r="Z4">
-        <v>1.482570748730971</v>
+        <v>2.295764853811622</v>
       </c>
       <c r="AA4">
-        <v>1.482570748730971</v>
+        <v>2.295764853811622</v>
       </c>
       <c r="AB4">
-        <v>1.482570748730971</v>
+        <v>2.295764853811622</v>
       </c>
       <c r="AC4">
-        <v>1.482570748730971</v>
+        <v>2.295764853811622</v>
       </c>
       <c r="AD4">
-        <v>1.482570748730971</v>
+        <v>2.295764853811622</v>
       </c>
       <c r="AE4">
-        <v>1.482570748730971</v>
+        <v>2.295764853811622</v>
       </c>
       <c r="AF4">
-        <v>1.482570748730971</v>
+        <v>2.295764853811622</v>
       </c>
       <c r="AG4">
-        <v>1.482570748730971</v>
+        <v>2.295764853811622</v>
       </c>
       <c r="AH4">
-        <v>1.482570748730971</v>
+        <v>2.295764853811622</v>
       </c>
       <c r="AI4">
-        <v>1.482570748730971</v>
+        <v>2.295764853811622</v>
       </c>
       <c r="AJ4">
-        <v>1.482570748730971</v>
+        <v>2.295764853811622</v>
       </c>
       <c r="AK4">
-        <v>1.482570748730971</v>
+        <v>2.295764853811622</v>
       </c>
       <c r="AL4">
-        <v>1.482570748730971</v>
+        <v>2.295764853811622</v>
       </c>
       <c r="AM4">
-        <v>1.482570748730971</v>
+        <v>2.295764853811622</v>
       </c>
       <c r="AN4">
-        <v>1.482570748730971</v>
+        <v>2.295764853811622</v>
       </c>
       <c r="AO4">
-        <v>1.482570748730971</v>
+        <v>2.295764853811622</v>
       </c>
       <c r="AP4">
-        <v>1.482570748730971</v>
+        <v>2.295764853811622</v>
       </c>
       <c r="AQ4">
-        <v>1.482570748730971</v>
+        <v>2.295764853811622</v>
       </c>
       <c r="AR4">
-        <v>1.482570748730971</v>
+        <v>2.295764853811622</v>
       </c>
       <c r="AS4">
-        <v>1.482570748730971</v>
+        <v>2.295764853811622</v>
       </c>
       <c r="AT4">
-        <v>1.482570748730971</v>
+        <v>2.295764853811622</v>
       </c>
       <c r="AU4">
-        <v>1.482570748730971</v>
+        <v>2.295764853811622</v>
       </c>
       <c r="AV4">
-        <v>1.482570748730971</v>
+        <v>2.295764853811622</v>
       </c>
       <c r="AW4">
-        <v>1.482570748730971</v>
+        <v>2.295764853811622</v>
       </c>
       <c r="AX4">
-        <v>1.482570748730971</v>
+        <v>2.295764853811622</v>
       </c>
       <c r="AY4">
-        <v>1.482570748730971</v>
+        <v>2.295764853811622</v>
       </c>
       <c r="AZ4">
-        <v>1.482570748730971</v>
+        <v>2.295764853811622</v>
       </c>
       <c r="BA4">
-        <v>1.482570748730971</v>
+        <v>2.295764853811622</v>
       </c>
     </row>
     <row r="5" spans="1:53">
       <c r="A5" s="1">
-        <v>39813</v>
-      </c>
-      <c r="D5">
-        <v>2.213911448916162</v>
-      </c>
-      <c r="E5">
-        <v>1.883193296444685</v>
-      </c>
-      <c r="F5">
-        <v>1.795947358965178</v>
+        <v>40908</v>
       </c>
       <c r="G5">
-        <v>1.564959442678782</v>
+        <v>1.903751357432215</v>
       </c>
       <c r="H5">
-        <v>1.533729034589149</v>
+        <v>1.485473821631866</v>
       </c>
       <c r="I5">
-        <v>1.533729034589149</v>
+        <v>1.614140618728288</v>
       </c>
       <c r="J5">
-        <v>1.533729034589149</v>
+        <v>1.21254482274098</v>
       </c>
       <c r="K5">
-        <v>1.533729034589149</v>
+        <v>1.037234054664249</v>
       </c>
       <c r="L5">
-        <v>1.533729034589149</v>
+        <v>0.9863459896782389</v>
       </c>
       <c r="M5">
-        <v>1.533729034589149</v>
+        <v>0.9863459896782389</v>
       </c>
       <c r="N5">
-        <v>1.533729034589149</v>
+        <v>0.9560359274609631</v>
       </c>
       <c r="O5">
-        <v>1.533729034589149</v>
+        <v>0.9560359274609631</v>
       </c>
       <c r="P5">
-        <v>1.533729034589149</v>
+        <v>0.9560359274609631</v>
       </c>
       <c r="Q5">
-        <v>1.533729034589149</v>
+        <v>0.9560359274609631</v>
       </c>
       <c r="R5">
-        <v>1.533729034589149</v>
+        <v>0.9560359274609631</v>
       </c>
       <c r="S5">
-        <v>1.533729034589149</v>
+        <v>0.9560359274609631</v>
       </c>
       <c r="T5">
-        <v>1.533729034589149</v>
+        <v>0.9560359274609631</v>
       </c>
       <c r="U5">
-        <v>1.533729034589149</v>
+        <v>0.9560359274609631</v>
       </c>
       <c r="V5">
-        <v>1.533729034589149</v>
+        <v>0.9560359274609631</v>
       </c>
       <c r="W5">
-        <v>1.533729034589149</v>
+        <v>0.9560359274609631</v>
       </c>
       <c r="X5">
-        <v>1.533729034589149</v>
+        <v>0.9560359274609631</v>
       </c>
       <c r="Y5">
-        <v>1.533729034589149</v>
+        <v>0.9560359274609631</v>
       </c>
       <c r="Z5">
-        <v>1.533729034589149</v>
+        <v>0.9560359274609631</v>
       </c>
       <c r="AA5">
-        <v>1.533729034589149</v>
+        <v>0.9560359274609631</v>
       </c>
       <c r="AB5">
-        <v>1.533729034589149</v>
+        <v>0.9560359274609631</v>
       </c>
       <c r="AC5">
-        <v>1.533729034589149</v>
+        <v>0.9560359274609631</v>
       </c>
       <c r="AD5">
-        <v>1.533729034589149</v>
+        <v>0.9560359274609631</v>
       </c>
       <c r="AE5">
-        <v>1.533729034589149</v>
+        <v>0.9560359274609631</v>
       </c>
       <c r="AF5">
-        <v>1.533729034589149</v>
+        <v>0.9560359274609631</v>
       </c>
       <c r="AG5">
-        <v>1.533729034589149</v>
+        <v>0.9560359274609631</v>
       </c>
       <c r="AH5">
-        <v>1.533729034589149</v>
+        <v>0.9560359274609631</v>
       </c>
       <c r="AI5">
-        <v>1.533729034589149</v>
+        <v>0.9560359274609631</v>
       </c>
       <c r="AJ5">
-        <v>1.533729034589149</v>
+        <v>0.9560359274609631</v>
       </c>
       <c r="AK5">
-        <v>1.533729034589149</v>
+        <v>0.9560359274609631</v>
       </c>
       <c r="AL5">
-        <v>1.533729034589149</v>
+        <v>0.9560359274609631</v>
       </c>
       <c r="AM5">
-        <v>1.533729034589149</v>
+        <v>0.9560359274609631</v>
       </c>
       <c r="AN5">
-        <v>1.533729034589149</v>
+        <v>0.9560359274609631</v>
       </c>
       <c r="AO5">
-        <v>1.533729034589149</v>
+        <v>0.9560359274609631</v>
       </c>
       <c r="AP5">
-        <v>1.533729034589149</v>
+        <v>0.9560359274609631</v>
       </c>
       <c r="AQ5">
-        <v>1.533729034589149</v>
+        <v>0.9560359274609631</v>
       </c>
       <c r="AR5">
-        <v>1.533729034589149</v>
+        <v>0.9560359274609631</v>
       </c>
       <c r="AS5">
-        <v>1.533729034589149</v>
+        <v>0.9560359274609631</v>
       </c>
       <c r="AT5">
-        <v>1.533729034589149</v>
+        <v>0.9560359274609631</v>
       </c>
       <c r="AU5">
-        <v>1.533729034589149</v>
+        <v>0.9560359274609631</v>
       </c>
       <c r="AV5">
-        <v>1.533729034589149</v>
+        <v>0.9560359274609631</v>
       </c>
       <c r="AW5">
-        <v>1.533729034589149</v>
+        <v>0.9560359274609631</v>
       </c>
       <c r="AX5">
-        <v>1.533729034589149</v>
+        <v>0.9560359274609631</v>
       </c>
       <c r="AY5">
-        <v>1.533729034589149</v>
+        <v>0.9560359274609631</v>
       </c>
       <c r="AZ5">
-        <v>1.533729034589149</v>
+        <v>0.9560359274609631</v>
       </c>
       <c r="BA5">
-        <v>1.533729034589149</v>
+        <v>0.9560359274609631</v>
       </c>
     </row>
     <row r="6" spans="1:53">
       <c r="A6" s="1">
-        <v>40178</v>
-      </c>
-      <c r="F6">
-        <v>2.533533936850563</v>
+        <v>41274</v>
       </c>
       <c r="G6">
-        <v>3.301378284238399</v>
+        <v>1.781340374542273</v>
       </c>
       <c r="H6">
-        <v>2.914403749192762</v>
+        <v>1.676623768193508</v>
       </c>
       <c r="I6">
-        <v>2.811849128593202</v>
+        <v>1.770808585446004</v>
       </c>
       <c r="J6">
-        <v>3.311198277644523</v>
+        <v>1.799394172339364</v>
       </c>
       <c r="K6">
-        <v>3.311198277644523</v>
+        <v>1.625793900975747</v>
       </c>
       <c r="L6">
-        <v>3.311198277644523</v>
+        <v>1.196776590518644</v>
       </c>
       <c r="M6">
-        <v>3.311198277644523</v>
+        <v>1.267488427675878</v>
       </c>
       <c r="N6">
-        <v>3.311198277644523</v>
+        <v>1.198510571931855</v>
       </c>
       <c r="O6">
-        <v>3.311198277644523</v>
+        <v>1.152798198102345</v>
       </c>
       <c r="P6">
-        <v>3.311198277644523</v>
+        <v>1.33431011236409</v>
       </c>
       <c r="Q6">
-        <v>3.311198277644523</v>
+        <v>1.33431011236409</v>
       </c>
       <c r="R6">
-        <v>3.311198277644523</v>
+        <v>1.33431011236409</v>
       </c>
       <c r="S6">
-        <v>3.311198277644523</v>
+        <v>1.33431011236409</v>
       </c>
       <c r="T6">
-        <v>3.311198277644523</v>
+        <v>1.33431011236409</v>
       </c>
       <c r="U6">
-        <v>3.311198277644523</v>
+        <v>1.33431011236409</v>
       </c>
       <c r="V6">
-        <v>3.311198277644523</v>
+        <v>1.33431011236409</v>
       </c>
       <c r="W6">
-        <v>3.311198277644523</v>
+        <v>1.33431011236409</v>
       </c>
       <c r="X6">
-        <v>3.311198277644523</v>
+        <v>1.33431011236409</v>
       </c>
       <c r="Y6">
-        <v>3.311198277644523</v>
+        <v>1.33431011236409</v>
       </c>
       <c r="Z6">
-        <v>3.311198277644523</v>
+        <v>1.33431011236409</v>
       </c>
       <c r="AA6">
-        <v>3.311198277644523</v>
+        <v>1.33431011236409</v>
       </c>
       <c r="AB6">
-        <v>3.311198277644523</v>
+        <v>1.33431011236409</v>
       </c>
       <c r="AC6">
-        <v>3.311198277644523</v>
+        <v>1.33431011236409</v>
       </c>
       <c r="AD6">
-        <v>3.311198277644523</v>
+        <v>1.33431011236409</v>
       </c>
       <c r="AE6">
-        <v>3.311198277644523</v>
+        <v>1.33431011236409</v>
       </c>
       <c r="AF6">
-        <v>3.311198277644523</v>
+        <v>1.33431011236409</v>
       </c>
       <c r="AG6">
-        <v>3.311198277644523</v>
+        <v>1.33431011236409</v>
       </c>
       <c r="AH6">
-        <v>3.311198277644523</v>
+        <v>1.33431011236409</v>
       </c>
       <c r="AI6">
-        <v>3.311198277644523</v>
+        <v>1.33431011236409</v>
       </c>
       <c r="AJ6">
-        <v>3.311198277644523</v>
+        <v>1.33431011236409</v>
       </c>
       <c r="AK6">
-        <v>3.311198277644523</v>
+        <v>1.33431011236409</v>
       </c>
       <c r="AL6">
-        <v>3.311198277644523</v>
+        <v>1.33431011236409</v>
       </c>
       <c r="AM6">
-        <v>3.311198277644523</v>
+        <v>1.33431011236409</v>
       </c>
       <c r="AN6">
-        <v>3.311198277644523</v>
+        <v>1.33431011236409</v>
       </c>
       <c r="AO6">
-        <v>3.311198277644523</v>
+        <v>1.33431011236409</v>
       </c>
       <c r="AP6">
-        <v>3.311198277644523</v>
+        <v>1.33431011236409</v>
       </c>
       <c r="AQ6">
-        <v>3.311198277644523</v>
+        <v>1.33431011236409</v>
       </c>
       <c r="AR6">
-        <v>3.311198277644523</v>
+        <v>1.33431011236409</v>
       </c>
       <c r="AS6">
-        <v>3.311198277644523</v>
+        <v>1.33431011236409</v>
       </c>
       <c r="AT6">
-        <v>3.311198277644523</v>
+        <v>1.33431011236409</v>
       </c>
       <c r="AU6">
-        <v>3.311198277644523</v>
+        <v>1.33431011236409</v>
       </c>
       <c r="AV6">
-        <v>3.311198277644523</v>
+        <v>1.33431011236409</v>
       </c>
       <c r="AW6">
-        <v>3.311198277644523</v>
+        <v>1.33431011236409</v>
       </c>
       <c r="AX6">
-        <v>3.311198277644523</v>
+        <v>1.33431011236409</v>
       </c>
       <c r="AY6">
-        <v>3.311198277644523</v>
+        <v>1.33431011236409</v>
       </c>
       <c r="AZ6">
-        <v>3.311198277644523</v>
+        <v>1.33431011236409</v>
       </c>
       <c r="BA6">
-        <v>3.311198277644523</v>
+        <v>1.33431011236409</v>
       </c>
     </row>
     <row r="7" spans="1:53">
       <c r="A7" s="1">
-        <v>40543</v>
-      </c>
-      <c r="G7">
-        <v>2.208165160720954</v>
-      </c>
-      <c r="H7">
-        <v>2.088987486264915</v>
+        <v>41639</v>
       </c>
       <c r="I7">
-        <v>2.0882063055361</v>
+        <v>1.673270112481773</v>
       </c>
       <c r="J7">
-        <v>2.201049854143089</v>
+        <v>1.678713785652519</v>
       </c>
       <c r="K7">
-        <v>2.201049854143089</v>
+        <v>1.586821460965226</v>
       </c>
       <c r="L7">
-        <v>2.295764853811622</v>
+        <v>1.2151583353186</v>
       </c>
       <c r="M7">
-        <v>2.295764853811622</v>
+        <v>0.8049364973309325</v>
       </c>
       <c r="N7">
-        <v>2.295764853811622</v>
+        <v>0.4712609263772816</v>
       </c>
       <c r="O7">
-        <v>2.295764853811622</v>
+        <v>0.4980533509886476</v>
       </c>
       <c r="P7">
-        <v>2.295764853811622</v>
+        <v>0.8625324730765715</v>
       </c>
       <c r="Q7">
-        <v>2.295764853811622</v>
+        <v>0.8625324730765715</v>
       </c>
       <c r="R7">
-        <v>2.295764853811622</v>
+        <v>0.8625324730765715</v>
       </c>
       <c r="S7">
-        <v>2.295764853811622</v>
+        <v>0.8625324730765715</v>
       </c>
       <c r="T7">
-        <v>2.295764853811622</v>
+        <v>0.8625324730765715</v>
       </c>
       <c r="U7">
-        <v>2.295764853811622</v>
+        <v>0.8625324730765715</v>
       </c>
       <c r="V7">
-        <v>2.295764853811622</v>
+        <v>0.8625324730765715</v>
       </c>
       <c r="W7">
-        <v>2.295764853811622</v>
+        <v>0.8625324730765715</v>
       </c>
       <c r="X7">
-        <v>2.295764853811622</v>
+        <v>0.8625324730765715</v>
       </c>
       <c r="Y7">
-        <v>2.295764853811622</v>
+        <v>0.8625324730765715</v>
       </c>
       <c r="Z7">
-        <v>2.295764853811622</v>
+        <v>0.8625324730765715</v>
       </c>
       <c r="AA7">
-        <v>2.295764853811622</v>
+        <v>0.8625324730765715</v>
       </c>
       <c r="AB7">
-        <v>2.295764853811622</v>
+        <v>0.8625324730765715</v>
       </c>
       <c r="AC7">
-        <v>2.295764853811622</v>
+        <v>0.8625324730765715</v>
       </c>
       <c r="AD7">
-        <v>2.295764853811622</v>
+        <v>0.8625324730765715</v>
       </c>
       <c r="AE7">
-        <v>2.295764853811622</v>
+        <v>0.8625324730765715</v>
       </c>
       <c r="AF7">
-        <v>2.295764853811622</v>
+        <v>0.8625324730765715</v>
       </c>
       <c r="AG7">
-        <v>2.295764853811622</v>
+        <v>0.8625324730765715</v>
       </c>
       <c r="AH7">
-        <v>2.295764853811622</v>
+        <v>0.8625324730765715</v>
       </c>
       <c r="AI7">
-        <v>2.295764853811622</v>
+        <v>0.8625324730765715</v>
       </c>
       <c r="AJ7">
-        <v>2.295764853811622</v>
+        <v>0.8625324730765715</v>
       </c>
       <c r="AK7">
-        <v>2.295764853811622</v>
+        <v>0.8625324730765715</v>
       </c>
       <c r="AL7">
-        <v>2.295764853811622</v>
+        <v>0.8625324730765715</v>
       </c>
       <c r="AM7">
-        <v>2.295764853811622</v>
+        <v>0.8625324730765715</v>
       </c>
       <c r="AN7">
-        <v>2.295764853811622</v>
+        <v>0.8625324730765715</v>
       </c>
       <c r="AO7">
-        <v>2.295764853811622</v>
+        <v>0.8625324730765715</v>
       </c>
       <c r="AP7">
-        <v>2.295764853811622</v>
+        <v>0.8625324730765715</v>
       </c>
       <c r="AQ7">
-        <v>2.295764853811622</v>
+        <v>0.8625324730765715</v>
       </c>
       <c r="AR7">
-        <v>2.295764853811622</v>
+        <v>0.8625324730765715</v>
       </c>
       <c r="AS7">
-        <v>2.295764853811622</v>
+        <v>0.8625324730765715</v>
       </c>
       <c r="AT7">
-        <v>2.295764853811622</v>
+        <v>0.8625324730765715</v>
       </c>
       <c r="AU7">
-        <v>2.295764853811622</v>
+        <v>0.8625324730765715</v>
       </c>
       <c r="AV7">
-        <v>2.295764853811622</v>
+        <v>0.8625324730765715</v>
       </c>
       <c r="AW7">
-        <v>2.295764853811622</v>
+        <v>0.8625324730765715</v>
       </c>
       <c r="AX7">
-        <v>2.295764853811622</v>
+        <v>0.8625324730765715</v>
       </c>
       <c r="AY7">
-        <v>2.295764853811622</v>
+        <v>0.8625324730765715</v>
       </c>
       <c r="AZ7">
-        <v>2.295764853811622</v>
+        <v>0.8625324730765715</v>
       </c>
       <c r="BA7">
-        <v>2.295764853811622</v>
+        <v>0.8625324730765715</v>
       </c>
     </row>
     <row r="8" spans="1:53">
       <c r="A8" s="1">
-        <v>40908</v>
-      </c>
-      <c r="G8">
-        <v>1.903751357432193</v>
-      </c>
-      <c r="H8">
-        <v>1.485473821631844</v>
-      </c>
-      <c r="I8">
-        <v>1.614140618728332</v>
-      </c>
-      <c r="J8">
-        <v>1.212544822741002</v>
+        <v>42004</v>
       </c>
       <c r="K8">
-        <v>1.037234054664249</v>
+        <v>1.624600976993551</v>
       </c>
       <c r="L8">
-        <v>0.9863459896782389</v>
+        <v>1.545048740719857</v>
       </c>
       <c r="M8">
-        <v>0.9863459896782389</v>
+        <v>1.421244400332</v>
       </c>
       <c r="N8">
-        <v>0.9560359274609853</v>
+        <v>1.107727073902165</v>
       </c>
       <c r="O8">
-        <v>0.9560359274609853</v>
+        <v>0.5775251578155061</v>
       </c>
       <c r="P8">
-        <v>0.9560359274609853</v>
+        <v>0.8783377572271434</v>
       </c>
       <c r="Q8">
-        <v>0.9560359274609853</v>
+        <v>0.8490610167197987</v>
       </c>
       <c r="R8">
-        <v>0.9560359274609853</v>
+        <v>1.039829377018497</v>
       </c>
       <c r="S8">
-        <v>0.9560359274609853</v>
+        <v>1.127663699749437</v>
       </c>
       <c r="T8">
-        <v>0.9560359274609853</v>
+        <v>1.127663699749437</v>
       </c>
       <c r="U8">
-        <v>0.9560359274609853</v>
+        <v>1.127663699749437</v>
       </c>
       <c r="V8">
-        <v>0.9560359274609853</v>
+        <v>1.127663699749437</v>
       </c>
       <c r="W8">
-        <v>0.9560359274609853</v>
+        <v>1.127663699749437</v>
       </c>
       <c r="X8">
-        <v>0.9560359274609853</v>
+        <v>1.127663699749437</v>
       </c>
       <c r="Y8">
-        <v>0.9560359274609853</v>
+        <v>1.127663699749437</v>
       </c>
       <c r="Z8">
-        <v>0.9560359274609853</v>
+        <v>1.127663699749437</v>
       </c>
       <c r="AA8">
-        <v>0.9560359274609853</v>
+        <v>1.127663699749437</v>
       </c>
       <c r="AB8">
-        <v>0.9560359274609853</v>
+        <v>1.127663699749437</v>
       </c>
       <c r="AC8">
-        <v>0.9560359274609853</v>
+        <v>1.127663699749437</v>
       </c>
       <c r="AD8">
-        <v>0.9560359274609853</v>
+        <v>1.127663699749437</v>
       </c>
       <c r="AE8">
-        <v>0.9560359274609853</v>
+        <v>1.127663699749437</v>
       </c>
       <c r="AF8">
-        <v>0.9560359274609853</v>
+        <v>1.127663699749437</v>
       </c>
       <c r="AG8">
-        <v>0.9560359274609853</v>
+        <v>1.127663699749437</v>
       </c>
       <c r="AH8">
-        <v>0.9560359274609853</v>
+        <v>1.127663699749437</v>
       </c>
       <c r="AI8">
-        <v>0.9560359274609853</v>
+        <v>1.127663699749437</v>
       </c>
       <c r="AJ8">
-        <v>0.9560359274609853</v>
+        <v>1.127663699749437</v>
       </c>
       <c r="AK8">
-        <v>0.9560359274609853</v>
+        <v>1.127663699749437</v>
       </c>
       <c r="AL8">
-        <v>0.9560359274609853</v>
+        <v>1.127663699749437</v>
       </c>
       <c r="AM8">
-        <v>0.9560359274609853</v>
+        <v>1.127663699749437</v>
       </c>
       <c r="AN8">
-        <v>0.9560359274609853</v>
+        <v>1.127663699749437</v>
       </c>
       <c r="AO8">
-        <v>0.9560359274609853</v>
+        <v>1.127663699749437</v>
       </c>
       <c r="AP8">
-        <v>0.9560359274609853</v>
+        <v>1.127663699749437</v>
       </c>
       <c r="AQ8">
-        <v>0.9560359274609853</v>
+        <v>1.127663699749437</v>
       </c>
       <c r="AR8">
-        <v>0.9560359274609853</v>
+        <v>1.127663699749437</v>
       </c>
       <c r="AS8">
-        <v>0.9560359274609853</v>
+        <v>1.127663699749437</v>
       </c>
       <c r="AT8">
-        <v>0.9560359274609853</v>
+        <v>1.127663699749437</v>
       </c>
       <c r="AU8">
-        <v>0.9560359274609853</v>
+        <v>1.127663699749437</v>
       </c>
       <c r="AV8">
-        <v>0.9560359274609853</v>
+        <v>1.127663699749437</v>
       </c>
       <c r="AW8">
-        <v>0.9560359274609853</v>
+        <v>1.127663699749437</v>
       </c>
       <c r="AX8">
-        <v>0.9560359274609853</v>
+        <v>1.127663699749437</v>
       </c>
       <c r="AY8">
-        <v>0.9560359274609853</v>
+        <v>1.127663699749437</v>
       </c>
       <c r="AZ8">
-        <v>0.9560359274609853</v>
+        <v>1.127663699749437</v>
       </c>
       <c r="BA8">
-        <v>0.9560359274609853</v>
+        <v>1.127663699749437</v>
       </c>
     </row>
     <row r="9" spans="1:53">
       <c r="A9" s="1">
-        <v>41274</v>
-      </c>
-      <c r="G9">
-        <v>1.781340374542295</v>
-      </c>
-      <c r="H9">
-        <v>1.676623768193508</v>
-      </c>
-      <c r="I9">
-        <v>1.770808585446004</v>
-      </c>
-      <c r="J9">
-        <v>1.799394172339341</v>
-      </c>
-      <c r="K9">
-        <v>1.625793900975747</v>
-      </c>
-      <c r="L9">
-        <v>1.196776590518644</v>
+        <v>42369</v>
       </c>
       <c r="M9">
-        <v>1.267488427675856</v>
+        <v>1.493788985209954</v>
       </c>
       <c r="N9">
-        <v>1.19851057193181</v>
+        <v>1.40900620164246</v>
       </c>
       <c r="O9">
-        <v>1.152798198102301</v>
+        <v>1.341244385861273</v>
       </c>
       <c r="P9">
-        <v>1.334310112364046</v>
+        <v>1.612081704302182</v>
       </c>
       <c r="Q9">
-        <v>1.334310112364046</v>
+        <v>1.901826580533572</v>
       </c>
       <c r="R9">
-        <v>1.334310112364046</v>
+        <v>2.29066283401107</v>
       </c>
       <c r="S9">
-        <v>1.334310112364046</v>
+        <v>2.26461104984752</v>
       </c>
       <c r="T9">
-        <v>1.334310112364046</v>
+        <v>2.180625196942776</v>
       </c>
       <c r="U9">
-        <v>1.334310112364046</v>
+        <v>2.036722793063217</v>
       </c>
       <c r="V9">
-        <v>1.334310112364046</v>
+        <v>2.036722793063217</v>
       </c>
       <c r="W9">
-        <v>1.334310112364046</v>
+        <v>2.036722793063217</v>
       </c>
       <c r="X9">
-        <v>1.334310112364046</v>
+        <v>2.036722793063217</v>
       </c>
       <c r="Y9">
-        <v>1.334310112364046</v>
+        <v>2.036722793063217</v>
       </c>
       <c r="Z9">
-        <v>1.334310112364046</v>
+        <v>2.036722793063217</v>
       </c>
       <c r="AA9">
-        <v>1.334310112364046</v>
+        <v>2.036722793063217</v>
       </c>
       <c r="AB9">
-        <v>1.334310112364046</v>
+        <v>2.036722793063217</v>
       </c>
       <c r="AC9">
-        <v>1.334310112364046</v>
+        <v>2.036722793063217</v>
       </c>
       <c r="AD9">
-        <v>1.334310112364046</v>
+        <v>2.036722793063217</v>
       </c>
       <c r="AE9">
-        <v>1.334310112364046</v>
+        <v>2.036722793063217</v>
       </c>
       <c r="AF9">
-        <v>1.334310112364046</v>
+        <v>2.036722793063217</v>
       </c>
       <c r="AG9">
-        <v>1.334310112364046</v>
+        <v>2.036722793063217</v>
       </c>
       <c r="AH9">
-        <v>1.334310112364046</v>
+        <v>2.036722793063217</v>
       </c>
       <c r="AI9">
-        <v>1.334310112364046</v>
+        <v>2.036722793063217</v>
       </c>
       <c r="AJ9">
-        <v>1.334310112364046</v>
+        <v>2.036722793063217</v>
       </c>
       <c r="AK9">
-        <v>1.334310112364046</v>
+        <v>2.036722793063217</v>
       </c>
       <c r="AL9">
-        <v>1.334310112364046</v>
+        <v>2.036722793063217</v>
       </c>
       <c r="AM9">
-        <v>1.334310112364046</v>
+        <v>2.036722793063217</v>
       </c>
       <c r="AN9">
-        <v>1.334310112364046</v>
+        <v>2.036722793063217</v>
       </c>
       <c r="AO9">
-        <v>1.334310112364046</v>
+        <v>2.036722793063217</v>
       </c>
       <c r="AP9">
-        <v>1.334310112364046</v>
+        <v>2.036722793063217</v>
       </c>
       <c r="AQ9">
-        <v>1.334310112364046</v>
+        <v>2.036722793063217</v>
       </c>
       <c r="AR9">
-        <v>1.334310112364046</v>
+        <v>2.036722793063217</v>
       </c>
       <c r="AS9">
-        <v>1.334310112364046</v>
+        <v>2.036722793063217</v>
       </c>
       <c r="AT9">
-        <v>1.334310112364046</v>
+        <v>2.036722793063217</v>
       </c>
       <c r="AU9">
-        <v>1.334310112364046</v>
+        <v>2.036722793063217</v>
       </c>
       <c r="AV9">
-        <v>1.334310112364046</v>
+        <v>2.036722793063217</v>
       </c>
       <c r="AW9">
-        <v>1.334310112364046</v>
+        <v>2.036722793063217</v>
       </c>
       <c r="AX9">
-        <v>1.334310112364046</v>
+        <v>2.036722793063217</v>
       </c>
       <c r="AY9">
-        <v>1.334310112364046</v>
+        <v>2.036722793063217</v>
       </c>
       <c r="AZ9">
-        <v>1.334310112364046</v>
+        <v>2.036722793063217</v>
       </c>
       <c r="BA9">
-        <v>1.334310112364046</v>
+        <v>2.036722793063217</v>
       </c>
     </row>
     <row r="10" spans="1:53">
       <c r="A10" s="1">
-        <v>41639</v>
-      </c>
-      <c r="I10">
-        <v>1.673270112481728</v>
-      </c>
-      <c r="J10">
-        <v>1.678713785652519</v>
-      </c>
-      <c r="K10">
-        <v>1.586821460965226</v>
-      </c>
-      <c r="L10">
-        <v>1.2151583353186</v>
-      </c>
-      <c r="M10">
-        <v>0.8049364973309325</v>
-      </c>
-      <c r="N10">
-        <v>0.4712609263772594</v>
+        <v>42735</v>
       </c>
       <c r="O10">
-        <v>0.4980533509886476</v>
+        <v>1.342035297013866</v>
       </c>
       <c r="P10">
-        <v>0.8625324730765938</v>
+        <v>1.463149546318787</v>
       </c>
       <c r="Q10">
-        <v>0.8625324730765938</v>
+        <v>1.53605963063923</v>
       </c>
       <c r="R10">
-        <v>0.8625324730765938</v>
+        <v>2.221748592150141</v>
       </c>
       <c r="S10">
-        <v>0.8625324730765938</v>
+        <v>2.590339257583607</v>
       </c>
       <c r="T10">
-        <v>0.8625324730765938</v>
+        <v>4.109890522944326</v>
       </c>
       <c r="U10">
-        <v>0.8625324730765938</v>
+        <v>4.211110015923047</v>
       </c>
       <c r="V10">
-        <v>0.8625324730765938</v>
+        <v>4.211110015923047</v>
       </c>
       <c r="W10">
-        <v>0.8625324730765938</v>
+        <v>4.211110015923047</v>
       </c>
       <c r="X10">
-        <v>0.8625324730765938</v>
+        <v>4.211110015923047</v>
       </c>
       <c r="Y10">
-        <v>0.8625324730765938</v>
+        <v>4.211110015923047</v>
       </c>
       <c r="Z10">
-        <v>0.8625324730765938</v>
+        <v>4.211110015923047</v>
       </c>
       <c r="AA10">
-        <v>0.8625324730765938</v>
+        <v>4.211110015923047</v>
       </c>
       <c r="AB10">
-        <v>0.8625324730765938</v>
+        <v>4.211110015923047</v>
       </c>
       <c r="AC10">
-        <v>0.8625324730765938</v>
+        <v>4.211110015923047</v>
       </c>
       <c r="AD10">
-        <v>0.8625324730765938</v>
+        <v>4.211110015923047</v>
       </c>
       <c r="AE10">
-        <v>0.8625324730765938</v>
+        <v>4.211110015923047</v>
       </c>
       <c r="AF10">
-        <v>0.8625324730765938</v>
+        <v>4.211110015923047</v>
       </c>
       <c r="AG10">
-        <v>0.8625324730765938</v>
+        <v>4.211110015923047</v>
       </c>
       <c r="AH10">
-        <v>0.8625324730765938</v>
+        <v>4.211110015923047</v>
       </c>
       <c r="AI10">
-        <v>0.8625324730765938</v>
+        <v>4.211110015923047</v>
       </c>
       <c r="AJ10">
-        <v>0.8625324730765938</v>
+        <v>4.211110015923047</v>
       </c>
       <c r="AK10">
-        <v>0.8625324730765938</v>
+        <v>4.211110015923047</v>
       </c>
       <c r="AL10">
-        <v>0.8625324730765938</v>
+        <v>4.211110015923047</v>
       </c>
       <c r="AM10">
-        <v>0.8625324730765938</v>
+        <v>4.211110015923047</v>
       </c>
       <c r="AN10">
-        <v>0.8625324730765938</v>
+        <v>4.211110015923047</v>
       </c>
       <c r="AO10">
-        <v>0.8625324730765938</v>
+        <v>4.211110015923047</v>
       </c>
       <c r="AP10">
-        <v>0.8625324730765938</v>
+        <v>4.211110015923047</v>
       </c>
       <c r="AQ10">
-        <v>0.8625324730765938</v>
+        <v>4.211110015923047</v>
       </c>
       <c r="AR10">
-        <v>0.8625324730765938</v>
+        <v>4.211110015923047</v>
       </c>
       <c r="AS10">
-        <v>0.8625324730765938</v>
+        <v>4.211110015923047</v>
       </c>
       <c r="AT10">
-        <v>0.8625324730765938</v>
+        <v>4.211110015923047</v>
       </c>
       <c r="AU10">
-        <v>0.8625324730765938</v>
+        <v>4.211110015923047</v>
       </c>
       <c r="AV10">
-        <v>0.8625324730765938</v>
+        <v>4.211110015923047</v>
       </c>
       <c r="AW10">
-        <v>0.8625324730765938</v>
+        <v>4.211110015923047</v>
       </c>
       <c r="AX10">
-        <v>0.8625324730765938</v>
+        <v>4.211110015923047</v>
       </c>
       <c r="AY10">
-        <v>0.8625324730765938</v>
+        <v>4.211110015923047</v>
       </c>
       <c r="AZ10">
-        <v>0.8625324730765938</v>
+        <v>4.211110015923047</v>
       </c>
       <c r="BA10">
-        <v>0.8625324730765938</v>
+        <v>4.211110015923047</v>
       </c>
     </row>
     <row r="11" spans="1:53">
       <c r="A11" s="1">
-        <v>42004</v>
-      </c>
-      <c r="K11">
-        <v>1.624600976993529</v>
-      </c>
-      <c r="L11">
-        <v>1.545048740719879</v>
-      </c>
-      <c r="M11">
-        <v>1.421244400332</v>
-      </c>
-      <c r="N11">
-        <v>1.107727073902187</v>
-      </c>
-      <c r="O11">
-        <v>0.5775251578155283</v>
-      </c>
-      <c r="P11">
-        <v>0.8783377572271434</v>
+        <v>43100</v>
       </c>
       <c r="Q11">
-        <v>0.8490610167197987</v>
+        <v>1.490474392516594</v>
       </c>
       <c r="R11">
-        <v>1.039829377018475</v>
+        <v>1.618807850227388</v>
       </c>
       <c r="S11">
-        <v>1.127663699749415</v>
+        <v>1.672072534917302</v>
       </c>
       <c r="T11">
-        <v>1.127663699749415</v>
+        <v>2.932944072183674</v>
       </c>
       <c r="U11">
-        <v>1.127663699749415</v>
+        <v>1.713587272940154</v>
       </c>
       <c r="V11">
-        <v>1.127663699749415</v>
+        <v>1.336316831462692</v>
       </c>
       <c r="W11">
-        <v>1.127663699749415</v>
+        <v>1.59195091403983</v>
       </c>
       <c r="X11">
-        <v>1.127663699749415</v>
+        <v>1.551589743072856</v>
       </c>
       <c r="Y11">
-        <v>1.127663699749415</v>
+        <v>1.551589743072856</v>
       </c>
       <c r="Z11">
-        <v>1.127663699749415</v>
+        <v>1.551589743072856</v>
       </c>
       <c r="AA11">
-        <v>1.127663699749415</v>
+        <v>1.551589743072856</v>
       </c>
       <c r="AB11">
-        <v>1.127663699749415</v>
+        <v>1.551589743072856</v>
       </c>
       <c r="AC11">
-        <v>1.127663699749415</v>
+        <v>1.551589743072856</v>
       </c>
       <c r="AD11">
-        <v>1.127663699749415</v>
+        <v>1.551589743072856</v>
       </c>
       <c r="AE11">
-        <v>1.127663699749415</v>
+        <v>1.551589743072856</v>
       </c>
       <c r="AF11">
-        <v>1.127663699749415</v>
+        <v>1.551589743072856</v>
       </c>
       <c r="AG11">
-        <v>1.127663699749415</v>
+        <v>1.551589743072856</v>
       </c>
       <c r="AH11">
-        <v>1.127663699749415</v>
+        <v>1.551589743072856</v>
       </c>
       <c r="AI11">
-        <v>1.127663699749415</v>
+        <v>1.551589743072856</v>
       </c>
       <c r="AJ11">
-        <v>1.127663699749415</v>
+        <v>1.551589743072856</v>
       </c>
       <c r="AK11">
-        <v>1.127663699749415</v>
+        <v>1.551589743072856</v>
       </c>
       <c r="AL11">
-        <v>1.127663699749415</v>
+        <v>1.551589743072856</v>
       </c>
       <c r="AM11">
-        <v>1.127663699749415</v>
+        <v>1.551589743072856</v>
       </c>
       <c r="AN11">
-        <v>1.127663699749415</v>
+        <v>1.551589743072856</v>
       </c>
       <c r="AO11">
-        <v>1.127663699749415</v>
+        <v>1.551589743072856</v>
       </c>
       <c r="AP11">
-        <v>1.127663699749415</v>
+        <v>1.551589743072856</v>
       </c>
       <c r="AQ11">
-        <v>1.127663699749415</v>
+        <v>1.551589743072856</v>
       </c>
       <c r="AR11">
-        <v>1.127663699749415</v>
+        <v>1.551589743072856</v>
       </c>
       <c r="AS11">
-        <v>1.127663699749415</v>
+        <v>1.551589743072856</v>
       </c>
       <c r="AT11">
-        <v>1.127663699749415</v>
+        <v>1.551589743072856</v>
       </c>
       <c r="AU11">
-        <v>1.127663699749415</v>
+        <v>1.551589743072856</v>
       </c>
       <c r="AV11">
-        <v>1.127663699749415</v>
+        <v>1.551589743072856</v>
       </c>
       <c r="AW11">
-        <v>1.127663699749415</v>
+        <v>1.551589743072856</v>
       </c>
       <c r="AX11">
-        <v>1.127663699749415</v>
+        <v>1.551589743072856</v>
       </c>
       <c r="AY11">
-        <v>1.127663699749415</v>
+        <v>1.551589743072856</v>
       </c>
       <c r="AZ11">
-        <v>1.127663699749415</v>
+        <v>1.551589743072856</v>
       </c>
       <c r="BA11">
-        <v>1.127663699749415</v>
+        <v>1.551589743072856</v>
       </c>
     </row>
     <row r="12" spans="1:53">
       <c r="A12" s="1">
-        <v>42369</v>
-      </c>
-      <c r="M12">
-        <v>1.493788985209954</v>
-      </c>
-      <c r="N12">
-        <v>1.409006201642482</v>
-      </c>
-      <c r="O12">
-        <v>1.341244385861273</v>
-      </c>
-      <c r="P12">
-        <v>1.612081704302182</v>
-      </c>
-      <c r="Q12">
-        <v>1.901826580533572</v>
-      </c>
-      <c r="R12">
-        <v>2.29066283401107</v>
+        <v>43465</v>
       </c>
       <c r="S12">
-        <v>2.26461104984752</v>
+        <v>1.640461904302404</v>
       </c>
       <c r="T12">
-        <v>2.180625196942776</v>
+        <v>1.897648850229738</v>
       </c>
       <c r="U12">
-        <v>2.036722793063239</v>
+        <v>1.721854626734931</v>
       </c>
       <c r="V12">
-        <v>2.036722793063239</v>
+        <v>1.104283769064729</v>
       </c>
       <c r="W12">
-        <v>2.036722793063239</v>
+        <v>1.808022822788802</v>
       </c>
       <c r="X12">
-        <v>2.036722793063239</v>
+        <v>1.05432456490544</v>
       </c>
       <c r="Y12">
-        <v>2.036722793063239</v>
+        <v>1.299469465444636</v>
       </c>
       <c r="Z12">
-        <v>2.036722793063239</v>
+        <v>1.197912858979611</v>
       </c>
       <c r="AA12">
-        <v>2.036722793063239</v>
+        <v>1.15809427190452</v>
       </c>
       <c r="AB12">
-        <v>2.036722793063239</v>
+        <v>1.173141108194797</v>
       </c>
       <c r="AC12">
-        <v>2.036722793063239</v>
+        <v>1.455651414914461</v>
       </c>
       <c r="AD12">
-        <v>2.036722793063239</v>
+        <v>1.455651414914461</v>
       </c>
       <c r="AE12">
-        <v>2.036722793063239</v>
+        <v>1.455651414914461</v>
       </c>
       <c r="AF12">
-        <v>2.036722793063239</v>
+        <v>1.455651414914461</v>
       </c>
       <c r="AG12">
-        <v>2.036722793063239</v>
+        <v>1.455651414914461</v>
       </c>
       <c r="AH12">
-        <v>2.036722793063239</v>
+        <v>1.455651414914461</v>
       </c>
       <c r="AI12">
-        <v>2.036722793063239</v>
+        <v>1.455651414914461</v>
       </c>
       <c r="AJ12">
-        <v>2.036722793063239</v>
+        <v>1.455651414914461</v>
       </c>
       <c r="AK12">
-        <v>2.036722793063239</v>
+        <v>1.455651414914461</v>
       </c>
       <c r="AL12">
-        <v>2.036722793063239</v>
+        <v>1.455651414914461</v>
       </c>
       <c r="AM12">
-        <v>2.036722793063239</v>
+        <v>1.455651414914461</v>
       </c>
       <c r="AN12">
-        <v>2.036722793063239</v>
+        <v>1.455651414914461</v>
       </c>
       <c r="AO12">
-        <v>2.036722793063239</v>
+        <v>1.455651414914461</v>
       </c>
       <c r="AP12">
-        <v>2.036722793063239</v>
+        <v>1.455651414914461</v>
       </c>
       <c r="AQ12">
-        <v>2.036722793063239</v>
+        <v>1.455651414914461</v>
       </c>
       <c r="AR12">
-        <v>2.036722793063239</v>
+        <v>1.455651414914461</v>
       </c>
       <c r="AS12">
-        <v>2.036722793063239</v>
+        <v>1.455651414914461</v>
       </c>
       <c r="AT12">
-        <v>2.036722793063239</v>
+        <v>1.455651414914461</v>
       </c>
       <c r="AU12">
-        <v>2.036722793063239</v>
+        <v>1.455651414914461</v>
       </c>
       <c r="AV12">
-        <v>2.036722793063239</v>
+        <v>1.455651414914461</v>
       </c>
       <c r="AW12">
-        <v>2.036722793063239</v>
+        <v>1.455651414914461</v>
       </c>
       <c r="AX12">
-        <v>2.036722793063239</v>
+        <v>1.455651414914461</v>
       </c>
       <c r="AY12">
-        <v>2.036722793063239</v>
+        <v>1.455651414914461</v>
       </c>
       <c r="AZ12">
-        <v>2.036722793063239</v>
+        <v>1.455651414914461</v>
       </c>
       <c r="BA12">
-        <v>2.036722793063239</v>
+        <v>1.455651414914461</v>
       </c>
     </row>
     <row r="13" spans="1:53">
       <c r="A13" s="1">
-        <v>42735</v>
-      </c>
-      <c r="O13">
-        <v>1.342035297013888</v>
-      </c>
-      <c r="P13">
-        <v>1.463149546318809</v>
-      </c>
-      <c r="Q13">
-        <v>1.53605963063923</v>
-      </c>
-      <c r="R13">
-        <v>2.221748592150097</v>
-      </c>
-      <c r="S13">
-        <v>2.590339257583607</v>
-      </c>
-      <c r="T13">
-        <v>4.109890522944348</v>
+        <v>43830</v>
       </c>
       <c r="U13">
-        <v>4.211110015923025</v>
+        <v>1.740626125439038</v>
       </c>
       <c r="V13">
-        <v>4.211110015923025</v>
+        <v>1.672385204276283</v>
       </c>
       <c r="W13">
-        <v>4.211110015923025</v>
+        <v>1.867774135387434</v>
       </c>
       <c r="X13">
-        <v>4.211110015923025</v>
+        <v>1.415552619392124</v>
       </c>
       <c r="Y13">
-        <v>4.211110015923025</v>
+        <v>1.645976944955962</v>
       </c>
       <c r="Z13">
-        <v>4.211110015923025</v>
+        <v>1.649865498505254</v>
       </c>
       <c r="AA13">
-        <v>4.211110015923025</v>
+        <v>2.247656020455713</v>
       </c>
       <c r="AB13">
-        <v>4.211110015923025</v>
+        <v>1.566023898188384</v>
       </c>
       <c r="AC13">
-        <v>4.211110015923025</v>
+        <v>1.75655962297816</v>
       </c>
       <c r="AD13">
-        <v>4.211110015923025</v>
+        <v>1.727537197898665</v>
       </c>
       <c r="AE13">
-        <v>4.211110015923025</v>
+        <v>2.066130269500577</v>
       </c>
       <c r="AF13">
-        <v>4.211110015923025</v>
+        <v>2.211901852239651</v>
       </c>
       <c r="AG13">
-        <v>4.211110015923025</v>
+        <v>2.211901852239651</v>
       </c>
       <c r="AH13">
-        <v>4.211110015923025</v>
+        <v>2.211901852239651</v>
       </c>
       <c r="AI13">
-        <v>4.211110015923025</v>
+        <v>2.211901852239651</v>
       </c>
       <c r="AJ13">
-        <v>4.211110015923025</v>
+        <v>2.211901852239651</v>
       </c>
       <c r="AK13">
-        <v>4.211110015923025</v>
+        <v>2.211901852239651</v>
       </c>
       <c r="AL13">
-        <v>4.211110015923025</v>
+        <v>2.211901852239651</v>
       </c>
       <c r="AM13">
-        <v>4.211110015923025</v>
+        <v>2.211901852239651</v>
       </c>
       <c r="AN13">
-        <v>4.211110015923025</v>
+        <v>2.211901852239651</v>
       </c>
       <c r="AO13">
-        <v>4.211110015923025</v>
+        <v>2.211901852239651</v>
       </c>
       <c r="AP13">
-        <v>4.211110015923025</v>
+        <v>2.211901852239651</v>
       </c>
       <c r="AQ13">
-        <v>4.211110015923025</v>
+        <v>2.211901852239651</v>
       </c>
       <c r="AR13">
-        <v>4.211110015923025</v>
+        <v>2.211901852239651</v>
       </c>
       <c r="AS13">
-        <v>4.211110015923025</v>
+        <v>2.211901852239651</v>
       </c>
       <c r="AT13">
-        <v>4.211110015923025</v>
+        <v>2.211901852239651</v>
       </c>
       <c r="AU13">
-        <v>4.211110015923025</v>
+        <v>2.211901852239651</v>
       </c>
       <c r="AV13">
-        <v>4.211110015923025</v>
+        <v>2.211901852239651</v>
       </c>
       <c r="AW13">
-        <v>4.211110015923025</v>
+        <v>2.211901852239651</v>
       </c>
       <c r="AX13">
-        <v>4.211110015923025</v>
+        <v>2.211901852239651</v>
       </c>
       <c r="AY13">
-        <v>4.211110015923025</v>
+        <v>2.211901852239651</v>
       </c>
       <c r="AZ13">
-        <v>4.211110015923025</v>
+        <v>2.211901852239651</v>
       </c>
       <c r="BA13">
-        <v>4.211110015923025</v>
+        <v>2.211901852239651</v>
       </c>
     </row>
     <row r="14" spans="1:53">
       <c r="A14" s="1">
-        <v>43100</v>
-      </c>
-      <c r="Q14">
-        <v>1.490474392516594</v>
-      </c>
-      <c r="R14">
-        <v>1.618807850227388</v>
-      </c>
-      <c r="S14">
-        <v>1.672072534917302</v>
-      </c>
-      <c r="T14">
-        <v>2.932944072183674</v>
-      </c>
-      <c r="U14">
-        <v>1.713587272940131</v>
-      </c>
-      <c r="V14">
-        <v>1.336316831462692</v>
-      </c>
-      <c r="W14">
-        <v>1.591950914039808</v>
+        <v>44196</v>
       </c>
       <c r="X14">
-        <v>1.551589743072834</v>
+        <v>1.750307290719277</v>
       </c>
       <c r="Y14">
-        <v>1.551589743072834</v>
+        <v>1.85570075575523</v>
       </c>
       <c r="Z14">
-        <v>1.551589743072834</v>
+        <v>1.849670283878457</v>
       </c>
       <c r="AA14">
-        <v>1.551589743072834</v>
+        <v>1.934175841213603</v>
       </c>
       <c r="AB14">
-        <v>1.551589743072834</v>
+        <v>1.644188696416449</v>
       </c>
       <c r="AC14">
-        <v>1.551589743072834</v>
+        <v>2.050351917667315</v>
       </c>
       <c r="AD14">
-        <v>1.551589743072834</v>
+        <v>2.284828905445191</v>
       </c>
       <c r="AE14">
-        <v>1.551589743072834</v>
+        <v>2.684967757027357</v>
       </c>
       <c r="AF14">
-        <v>1.551589743072834</v>
+        <v>2.155932165770968</v>
       </c>
       <c r="AG14">
-        <v>1.551589743072834</v>
+        <v>3.002689729985786</v>
       </c>
       <c r="AH14">
-        <v>1.551589743072834</v>
+        <v>3.647228437274408</v>
       </c>
       <c r="AI14">
-        <v>1.551589743072834</v>
+        <v>3.289483383701342</v>
       </c>
       <c r="AJ14">
-        <v>1.551589743072834</v>
+        <v>3.454003806423267</v>
       </c>
       <c r="AK14">
-        <v>1.551589743072834</v>
+        <v>3.454003806423267</v>
       </c>
       <c r="AL14">
-        <v>1.551589743072834</v>
+        <v>3.454003806423267</v>
       </c>
       <c r="AM14">
-        <v>1.551589743072834</v>
+        <v>3.454003806423267</v>
       </c>
       <c r="AN14">
-        <v>1.551589743072834</v>
+        <v>3.454003806423267</v>
       </c>
       <c r="AO14">
-        <v>1.551589743072834</v>
+        <v>3.454003806423267</v>
       </c>
       <c r="AP14">
-        <v>1.551589743072834</v>
+        <v>3.454003806423267</v>
       </c>
       <c r="AQ14">
-        <v>1.551589743072834</v>
+        <v>3.454003806423267</v>
       </c>
       <c r="AR14">
-        <v>1.551589743072834</v>
+        <v>3.454003806423267</v>
       </c>
       <c r="AS14">
-        <v>1.551589743072834</v>
+        <v>3.454003806423267</v>
       </c>
       <c r="AT14">
-        <v>1.551589743072834</v>
+        <v>3.454003806423267</v>
       </c>
       <c r="AU14">
-        <v>1.551589743072834</v>
+        <v>3.454003806423267</v>
       </c>
       <c r="AV14">
-        <v>1.551589743072834</v>
+        <v>3.454003806423267</v>
       </c>
       <c r="AW14">
-        <v>1.551589743072834</v>
+        <v>3.454003806423267</v>
       </c>
       <c r="AX14">
-        <v>1.551589743072834</v>
+        <v>3.454003806423267</v>
       </c>
       <c r="AY14">
-        <v>1.551589743072834</v>
+        <v>3.454003806423267</v>
       </c>
       <c r="AZ14">
-        <v>1.551589743072834</v>
+        <v>3.454003806423267</v>
       </c>
       <c r="BA14">
-        <v>1.551589743072834</v>
+        <v>3.454003806423267</v>
       </c>
     </row>
     <row r="15" spans="1:53">
       <c r="A15" s="1">
-        <v>43465</v>
-      </c>
-      <c r="S15">
-        <v>1.640461904302382</v>
-      </c>
-      <c r="T15">
-        <v>1.897648850229761</v>
-      </c>
-      <c r="U15">
-        <v>1.721854626734953</v>
-      </c>
-      <c r="V15">
-        <v>1.104283769064729</v>
-      </c>
-      <c r="W15">
-        <v>1.808022822788802</v>
-      </c>
-      <c r="X15">
-        <v>1.05432456490544</v>
-      </c>
-      <c r="Y15">
-        <v>1.299469465444592</v>
-      </c>
-      <c r="Z15">
-        <v>1.197912858979611</v>
-      </c>
-      <c r="AA15">
-        <v>1.15809427190452</v>
+        <v>44561</v>
       </c>
       <c r="AB15">
-        <v>1.173141108194797</v>
+        <v>1.747570531676201</v>
       </c>
       <c r="AC15">
-        <v>1.455651414914461</v>
+        <v>1.900472008175469</v>
       </c>
       <c r="AD15">
-        <v>1.455651414914461</v>
+        <v>1.987556364628551</v>
       </c>
       <c r="AE15">
-        <v>1.455651414914461</v>
+        <v>2.075491449101574</v>
       </c>
       <c r="AF15">
-        <v>1.455651414914461</v>
+        <v>1.805141163113122</v>
       </c>
       <c r="AG15">
-        <v>1.455651414914461</v>
+        <v>2.717337804233377</v>
       </c>
       <c r="AH15">
-        <v>1.455651414914461</v>
+        <v>3.747212465804828</v>
       </c>
       <c r="AI15">
-        <v>1.455651414914461</v>
+        <v>1.862551092269737</v>
       </c>
       <c r="AJ15">
-        <v>1.455651414914461</v>
+        <v>2.250958781244594</v>
       </c>
       <c r="AK15">
-        <v>1.455651414914461</v>
+        <v>2.162762949176811</v>
       </c>
       <c r="AL15">
-        <v>1.455651414914461</v>
+        <v>2.777797690741446</v>
       </c>
       <c r="AM15">
-        <v>1.455651414914461</v>
+        <v>2.749266975822984</v>
       </c>
       <c r="AN15">
-        <v>1.455651414914461</v>
+        <v>2.895789704837681</v>
       </c>
       <c r="AO15">
-        <v>1.455651414914461</v>
+        <v>2.895789704837681</v>
       </c>
       <c r="AP15">
-        <v>1.455651414914461</v>
+        <v>2.895789704837681</v>
       </c>
       <c r="AQ15">
-        <v>1.455651414914461</v>
+        <v>2.895789704837681</v>
       </c>
       <c r="AR15">
-        <v>1.455651414914461</v>
+        <v>2.895789704837681</v>
       </c>
       <c r="AS15">
-        <v>1.455651414914461</v>
+        <v>2.895789704837681</v>
       </c>
       <c r="AT15">
-        <v>1.455651414914461</v>
+        <v>2.895789704837681</v>
       </c>
       <c r="AU15">
-        <v>1.455651414914461</v>
+        <v>2.895789704837681</v>
       </c>
       <c r="AV15">
-        <v>1.455651414914461</v>
+        <v>2.895789704837681</v>
       </c>
       <c r="AW15">
-        <v>1.455651414914461</v>
+        <v>2.895789704837681</v>
       </c>
       <c r="AX15">
-        <v>1.455651414914461</v>
+        <v>2.895789704837681</v>
       </c>
       <c r="AY15">
-        <v>1.455651414914461</v>
+        <v>2.895789704837681</v>
       </c>
       <c r="AZ15">
-        <v>1.455651414914461</v>
+        <v>2.895789704837681</v>
       </c>
       <c r="BA15">
-        <v>1.455651414914461</v>
+        <v>2.895789704837681</v>
       </c>
     </row>
     <row r="16" spans="1:53">
       <c r="A16" s="1">
-        <v>43830</v>
-      </c>
-      <c r="U16">
-        <v>1.740626125439015</v>
-      </c>
-      <c r="V16">
-        <v>1.672385204276328</v>
-      </c>
-      <c r="W16">
-        <v>1.867774135387434</v>
-      </c>
-      <c r="X16">
-        <v>1.415552619392124</v>
-      </c>
-      <c r="Y16">
-        <v>1.645976944955962</v>
-      </c>
-      <c r="Z16">
-        <v>1.649865498505276</v>
-      </c>
-      <c r="AA16">
-        <v>2.247656020455691</v>
-      </c>
-      <c r="AB16">
-        <v>1.566023898188384</v>
-      </c>
-      <c r="AC16">
-        <v>1.75655962297816</v>
-      </c>
-      <c r="AD16">
-        <v>1.727537197898665</v>
-      </c>
-      <c r="AE16">
-        <v>2.066130269500599</v>
+        <v>44926</v>
       </c>
       <c r="AF16">
-        <v>2.211901852239651</v>
+        <v>1.962646141252966</v>
       </c>
       <c r="AG16">
-        <v>2.211901852239651</v>
+        <v>2.072091309408597</v>
       </c>
       <c r="AH16">
-        <v>2.211901852239651</v>
+        <v>2.297477717987162</v>
       </c>
       <c r="AI16">
-        <v>2.211901852239651</v>
+        <v>2.008389843939029</v>
       </c>
       <c r="AJ16">
-        <v>2.211901852239651</v>
+        <v>1.736577049860744</v>
       </c>
       <c r="AK16">
-        <v>2.211901852239651</v>
+        <v>2.210980515016114</v>
       </c>
       <c r="AL16">
-        <v>2.211901852239651</v>
+        <v>2.824945225847975</v>
       </c>
       <c r="AM16">
-        <v>2.211901852239651</v>
+        <v>1.844973267139771</v>
       </c>
       <c r="AN16">
-        <v>2.211901852239651</v>
+        <v>0.448965795177636</v>
       </c>
       <c r="AO16">
-        <v>2.211901852239651</v>
+        <v>2.344479533229382</v>
       </c>
       <c r="AP16">
-        <v>2.211901852239651</v>
+        <v>0.6994919452575576</v>
       </c>
       <c r="AQ16">
-        <v>2.211901852239651</v>
+        <v>0.3902136525336664</v>
       </c>
       <c r="AR16">
-        <v>2.211901852239651</v>
+        <v>0.486919784128137</v>
       </c>
       <c r="AS16">
-        <v>2.211901852239651</v>
+        <v>0.486919784128137</v>
       </c>
       <c r="AT16">
-        <v>2.211901852239651</v>
+        <v>0.486919784128137</v>
       </c>
       <c r="AU16">
-        <v>2.211901852239651</v>
+        <v>0.486919784128137</v>
       </c>
       <c r="AV16">
-        <v>2.211901852239651</v>
+        <v>0.486919784128137</v>
       </c>
       <c r="AW16">
-        <v>2.211901852239651</v>
+        <v>0.486919784128137</v>
       </c>
       <c r="AX16">
-        <v>2.211901852239651</v>
+        <v>0.486919784128137</v>
       </c>
       <c r="AY16">
-        <v>2.211901852239651</v>
+        <v>0.486919784128137</v>
       </c>
       <c r="AZ16">
-        <v>2.211901852239651</v>
+        <v>0.486919784128137</v>
       </c>
       <c r="BA16">
-        <v>2.211901852239651</v>
+        <v>0.486919784128137</v>
       </c>
     </row>
     <row r="17" spans="1:53">
       <c r="A17" s="1">
-        <v>44196</v>
-      </c>
-      <c r="X17">
-        <v>1.750307290719277</v>
-      </c>
-      <c r="Y17">
-        <v>1.85570075575523</v>
-      </c>
-      <c r="Z17">
-        <v>1.849670283878457</v>
-      </c>
-      <c r="AA17">
-        <v>1.934175841213626</v>
-      </c>
-      <c r="AB17">
-        <v>1.644188696416427</v>
-      </c>
-      <c r="AC17">
-        <v>2.050351917667315</v>
-      </c>
-      <c r="AD17">
-        <v>2.284828905445169</v>
-      </c>
-      <c r="AE17">
-        <v>2.684967757027334</v>
-      </c>
-      <c r="AF17">
-        <v>2.155932165770968</v>
-      </c>
-      <c r="AG17">
-        <v>3.002689729985786</v>
-      </c>
-      <c r="AH17">
-        <v>3.647228437274408</v>
-      </c>
-      <c r="AI17">
-        <v>3.289483383701342</v>
+        <v>45291</v>
       </c>
       <c r="AJ17">
-        <v>3.454003806423289</v>
+        <v>1.913069916960008</v>
       </c>
       <c r="AK17">
-        <v>3.454003806423289</v>
+        <v>1.93846428890676</v>
       </c>
       <c r="AL17">
-        <v>3.454003806423289</v>
+        <v>1.980109320952805</v>
       </c>
       <c r="AM17">
-        <v>3.454003806423289</v>
+        <v>1.987865029049263</v>
       </c>
       <c r="AN17">
-        <v>3.454003806423289</v>
+        <v>1.807989101611529</v>
       </c>
       <c r="AO17">
-        <v>3.454003806423289</v>
+        <v>2.678665099633881</v>
       </c>
       <c r="AP17">
-        <v>3.454003806423289</v>
+        <v>1.804067895915296</v>
       </c>
       <c r="AQ17">
-        <v>3.454003806423289</v>
+        <v>0.9086884146237262</v>
       </c>
       <c r="AR17">
-        <v>3.454003806423289</v>
+        <v>-3.096730754930299</v>
       </c>
       <c r="AS17">
-        <v>3.454003806423289</v>
+        <v>-1.5448523854244</v>
       </c>
       <c r="AT17">
-        <v>3.454003806423289</v>
+        <v>-1.432689847121826</v>
       </c>
       <c r="AU17">
-        <v>3.454003806423289</v>
+        <v>-1.101033528970929</v>
       </c>
       <c r="AV17">
-        <v>3.454003806423289</v>
+        <v>-0.8339987268308979</v>
       </c>
       <c r="AW17">
-        <v>3.454003806423289</v>
+        <v>-0.8339987268308979</v>
       </c>
       <c r="AX17">
-        <v>3.454003806423289</v>
+        <v>-0.8339987268308979</v>
       </c>
       <c r="AY17">
-        <v>3.454003806423289</v>
+        <v>-0.8339987268308979</v>
       </c>
       <c r="AZ17">
-        <v>3.454003806423289</v>
+        <v>-0.8339987268308979</v>
       </c>
       <c r="BA17">
-        <v>3.454003806423289</v>
+        <v>-0.8339987268308979</v>
       </c>
     </row>
     <row r="18" spans="1:53">
       <c r="A18" s="1">
-        <v>44561</v>
-      </c>
-      <c r="AB18">
-        <v>1.747570531676201</v>
-      </c>
-      <c r="AC18">
-        <v>1.900472008175513</v>
-      </c>
-      <c r="AD18">
-        <v>1.987556364628551</v>
-      </c>
-      <c r="AE18">
-        <v>2.075491449101596</v>
-      </c>
-      <c r="AF18">
-        <v>1.805141163113122</v>
-      </c>
-      <c r="AG18">
-        <v>2.717337804233377</v>
-      </c>
-      <c r="AH18">
-        <v>3.747212465804828</v>
-      </c>
-      <c r="AI18">
-        <v>1.862551092269715</v>
-      </c>
-      <c r="AJ18">
-        <v>2.250958781244572</v>
-      </c>
-      <c r="AK18">
-        <v>2.162762949176789</v>
-      </c>
-      <c r="AL18">
-        <v>2.777797690741424</v>
-      </c>
-      <c r="AM18">
-        <v>2.749266975822962</v>
+        <v>45657</v>
       </c>
       <c r="AN18">
-        <v>2.895789704837659</v>
+        <v>1.83515233114051</v>
       </c>
       <c r="AO18">
-        <v>2.895789704837659</v>
+        <v>2.132983436508762</v>
       </c>
       <c r="AP18">
-        <v>2.895789704837659</v>
+        <v>1.913684557203887</v>
       </c>
       <c r="AQ18">
-        <v>2.895789704837659</v>
+        <v>1.858034977419898</v>
       </c>
       <c r="AR18">
-        <v>2.895789704837659</v>
+        <v>0.528433313363541</v>
       </c>
       <c r="AS18">
-        <v>2.895789704837659</v>
+        <v>0.9116752238737647</v>
       </c>
       <c r="AT18">
-        <v>2.895789704837659</v>
+        <v>0.6746136605076947</v>
       </c>
       <c r="AU18">
-        <v>2.895789704837659</v>
+        <v>1.37654878977862</v>
       </c>
       <c r="AV18">
-        <v>2.895789704837659</v>
+        <v>1.477411815263108</v>
       </c>
       <c r="AW18">
-        <v>2.895789704837659</v>
+        <v>1.824327384084623</v>
       </c>
       <c r="AX18">
-        <v>2.895789704837659</v>
+        <v>2.033479419175155</v>
       </c>
       <c r="AY18">
-        <v>2.895789704837659</v>
+        <v>2.738259114155683</v>
       </c>
       <c r="AZ18">
-        <v>2.895789704837659</v>
+        <v>2.721554796335779</v>
       </c>
       <c r="BA18">
-        <v>2.895789704837659</v>
+        <v>2.721554796335779</v>
       </c>
     </row>
     <row r="19" spans="1:53">
       <c r="A19" s="1">
-        <v>44926</v>
-      </c>
-      <c r="AF19">
-        <v>1.962646141252966</v>
-      </c>
-      <c r="AG19">
-        <v>2.072091309408597</v>
-      </c>
-      <c r="AH19">
-        <v>2.29747771798714</v>
-      </c>
-      <c r="AI19">
-        <v>2.008389843939007</v>
-      </c>
-      <c r="AJ19">
-        <v>1.736577049860766</v>
-      </c>
-      <c r="AK19">
-        <v>2.210980515016114</v>
-      </c>
-      <c r="AL19">
-        <v>2.824945225847975</v>
-      </c>
-      <c r="AM19">
-        <v>1.844973267139771</v>
-      </c>
-      <c r="AN19">
-        <v>0.448965795177636</v>
-      </c>
-      <c r="AO19">
-        <v>2.344479533229382</v>
-      </c>
-      <c r="AP19">
-        <v>0.6994919452575576</v>
-      </c>
-      <c r="AQ19">
-        <v>0.3902136525336664</v>
+        <v>46022</v>
       </c>
       <c r="AR19">
-        <v>0.486919784128137</v>
+        <v>1.465880344954962</v>
       </c>
       <c r="AS19">
-        <v>0.486919784128137</v>
+        <v>1.621946240991634</v>
       </c>
       <c r="AT19">
-        <v>0.486919784128137</v>
+        <v>1.621474731069572</v>
       </c>
       <c r="AU19">
-        <v>0.486919784128137</v>
+        <v>1.701027207901173</v>
       </c>
       <c r="AV19">
-        <v>0.486919784128137</v>
+        <v>1.648748338197015</v>
       </c>
       <c r="AW19">
-        <v>0.486919784128137</v>
+        <v>1.824511239428483</v>
       </c>
       <c r="AX19">
-        <v>0.486919784128137</v>
+        <v>2.146365108912263</v>
       </c>
       <c r="AY19">
-        <v>0.486919784128137</v>
+        <v>3.24986482706644</v>
       </c>
       <c r="AZ19">
-        <v>0.486919784128137</v>
+        <v>2.414613509548658</v>
       </c>
       <c r="BA19">
-        <v>0.486919784128137</v>
+        <v>2.496198905957403</v>
       </c>
     </row>
     <row r="20" spans="1:53">
       <c r="A20" s="1">
-        <v>45291</v>
-      </c>
-      <c r="AJ20">
-        <v>1.913069916960008</v>
-      </c>
-      <c r="AK20">
-        <v>1.938464288906783</v>
-      </c>
-      <c r="AL20">
-        <v>1.980109320952783</v>
-      </c>
-      <c r="AM20">
-        <v>1.987865029049285</v>
-      </c>
-      <c r="AN20">
-        <v>1.807989101611551</v>
-      </c>
-      <c r="AO20">
-        <v>2.678665099633859</v>
-      </c>
-      <c r="AP20">
-        <v>1.804067895915273</v>
-      </c>
-      <c r="AQ20">
-        <v>0.9086884146237262</v>
-      </c>
-      <c r="AR20">
-        <v>-3.096730754930321</v>
-      </c>
-      <c r="AS20">
-        <v>-1.544852385424433</v>
-      </c>
-      <c r="AT20">
-        <v>-1.432689847121871</v>
-      </c>
-      <c r="AU20">
-        <v>-1.101033528970941</v>
+        <v>46387</v>
       </c>
       <c r="AV20">
-        <v>-0.8339987268309312</v>
+        <v>1.749422701360337</v>
       </c>
       <c r="AW20">
-        <v>-0.8339987268309312</v>
+        <v>1.783650567679107</v>
       </c>
       <c r="AX20">
-        <v>-0.8339987268309312</v>
+        <v>1.857636889919068</v>
       </c>
       <c r="AY20">
-        <v>-0.8339987268309312</v>
+        <v>2.001743795688449</v>
       </c>
       <c r="AZ20">
-        <v>-0.8339987268309312</v>
+        <v>1.862575447557324</v>
       </c>
       <c r="BA20">
-        <v>-0.8339987268309312</v>
+        <v>1.9311765707138</v>
       </c>
     </row>
     <row r="21" spans="1:53">
       <c r="A21" s="1">
-        <v>45657</v>
-      </c>
-      <c r="AN21">
-        <v>1.835152331140488</v>
-      </c>
-      <c r="AO21">
-        <v>2.132983436508784</v>
-      </c>
-      <c r="AP21">
-        <v>1.91368455720391</v>
-      </c>
-      <c r="AQ21">
-        <v>1.858034977419876</v>
-      </c>
-      <c r="AR21">
-        <v>0.5284333133635188</v>
-      </c>
-      <c r="AS21">
-        <v>0.9116752238737647</v>
-      </c>
-      <c r="AT21">
-        <v>0.6746136605076947</v>
-      </c>
-      <c r="AU21">
-        <v>1.37654878977862</v>
-      </c>
-      <c r="AV21">
-        <v>1.477411815263086</v>
-      </c>
-      <c r="AW21">
-        <v>1.824327384084601</v>
-      </c>
-      <c r="AX21">
-        <v>2.033479419175133</v>
-      </c>
-      <c r="AY21">
-        <v>2.738259114155683</v>
+        <v>46752</v>
       </c>
       <c r="AZ21">
-        <v>2.721554796335801</v>
+        <v>1.961192770159159</v>
       </c>
       <c r="BA21">
-        <v>2.721554796335801</v>
+        <v>2.010482122409574</v>
       </c>
     </row>
     <row r="22" spans="1:53">
       <c r="A22" s="1">
-        <v>46022</v>
-      </c>
-      <c r="AR22">
-        <v>1.465880344954984</v>
-      </c>
-      <c r="AS22">
-        <v>1.621946240991656</v>
-      </c>
-      <c r="AT22">
-        <v>1.621474731069594</v>
-      </c>
-      <c r="AU22">
-        <v>1.701027207901151</v>
-      </c>
-      <c r="AV22">
-        <v>1.648748338197037</v>
-      </c>
-      <c r="AW22">
-        <v>1.824511239428506</v>
-      </c>
-      <c r="AX22">
-        <v>2.146365108912285</v>
-      </c>
-      <c r="AY22">
-        <v>3.24986482706644</v>
-      </c>
-      <c r="AZ22">
-        <v>2.414613509548702</v>
-      </c>
-      <c r="BA22">
-        <v>2.496198905957447</v>
-      </c>
-    </row>
-    <row r="23" spans="1:53">
-      <c r="A23" s="1">
-        <v>46387</v>
-      </c>
-      <c r="AV23">
-        <v>1.749422701360315</v>
-      </c>
-      <c r="AW23">
-        <v>1.783650567679107</v>
-      </c>
-      <c r="AX23">
-        <v>1.857636889919068</v>
-      </c>
-      <c r="AY23">
-        <v>2.001743795688449</v>
-      </c>
-      <c r="AZ23">
-        <v>1.862575447557324</v>
-      </c>
-      <c r="BA23">
-        <v>1.931176570713755</v>
-      </c>
-    </row>
-    <row r="24" spans="1:53">
-      <c r="A24" s="1">
-        <v>46752</v>
-      </c>
-      <c r="AZ24">
-        <v>1.961192770159159</v>
-      </c>
-      <c r="BA24">
-        <v>2.010482122409574</v>
-      </c>
-    </row>
-    <row r="25" spans="1:53">
-      <c r="A25" s="1">
         <v>47118</v>
       </c>
     </row>

--- a/0_0_Data/3_Naive_Forecaster_Data/2_Combined_YoY_Component_Forecasts/dt_full_yoy_PUBCON_AR_50_9.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/2_Combined_YoY_Component_Forecasts/dt_full_yoy_PUBCON_AR_50_9.xlsx
@@ -369,13 +369,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BA22"/>
+  <dimension ref="A1:BB22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:53">
+    <row r="1" spans="1:54">
       <c r="B1" s="1">
         <v>39400</v>
       </c>
@@ -532,13 +532,16 @@
       <c r="BA1" s="1">
         <v>45891</v>
       </c>
+      <c r="BB1" s="1">
+        <v>45986</v>
+      </c>
     </row>
-    <row r="2" spans="1:53">
+    <row r="2" spans="1:54">
       <c r="A2" s="1">
         <v>39813</v>
       </c>
     </row>
-    <row r="3" spans="1:53">
+    <row r="3" spans="1:54">
       <c r="A3" s="1">
         <v>40178</v>
       </c>
@@ -686,8 +689,11 @@
       <c r="BA3">
         <v>3.311198277644523</v>
       </c>
+      <c r="BB3">
+        <v>3.311198277644523</v>
+      </c>
     </row>
-    <row r="4" spans="1:53">
+    <row r="4" spans="1:54">
       <c r="A4" s="1">
         <v>40543</v>
       </c>
@@ -832,8 +838,11 @@
       <c r="BA4">
         <v>2.295764853811622</v>
       </c>
+      <c r="BB4">
+        <v>2.295764853811622</v>
+      </c>
     </row>
-    <row r="5" spans="1:53">
+    <row r="5" spans="1:54">
       <c r="A5" s="1">
         <v>40908</v>
       </c>
@@ -978,8 +987,11 @@
       <c r="BA5">
         <v>0.9560359274609631</v>
       </c>
+      <c r="BB5">
+        <v>0.9560359274609631</v>
+      </c>
     </row>
-    <row r="6" spans="1:53">
+    <row r="6" spans="1:54">
       <c r="A6" s="1">
         <v>41274</v>
       </c>
@@ -1124,8 +1136,11 @@
       <c r="BA6">
         <v>1.33431011236409</v>
       </c>
+      <c r="BB6">
+        <v>1.33431011236409</v>
+      </c>
     </row>
-    <row r="7" spans="1:53">
+    <row r="7" spans="1:54">
       <c r="A7" s="1">
         <v>41639</v>
       </c>
@@ -1264,8 +1279,11 @@
       <c r="BA7">
         <v>0.8625324730765715</v>
       </c>
+      <c r="BB7">
+        <v>0.8625324730765715</v>
+      </c>
     </row>
-    <row r="8" spans="1:53">
+    <row r="8" spans="1:54">
       <c r="A8" s="1">
         <v>42004</v>
       </c>
@@ -1398,8 +1416,11 @@
       <c r="BA8">
         <v>1.127663699749437</v>
       </c>
+      <c r="BB8">
+        <v>1.127663699749437</v>
+      </c>
     </row>
-    <row r="9" spans="1:53">
+    <row r="9" spans="1:54">
       <c r="A9" s="1">
         <v>42369</v>
       </c>
@@ -1526,8 +1547,11 @@
       <c r="BA9">
         <v>2.036722793063217</v>
       </c>
+      <c r="BB9">
+        <v>2.036722793063217</v>
+      </c>
     </row>
-    <row r="10" spans="1:53">
+    <row r="10" spans="1:54">
       <c r="A10" s="1">
         <v>42735</v>
       </c>
@@ -1648,8 +1672,11 @@
       <c r="BA10">
         <v>4.211110015923047</v>
       </c>
+      <c r="BB10">
+        <v>4.211110015923047</v>
+      </c>
     </row>
-    <row r="11" spans="1:53">
+    <row r="11" spans="1:54">
       <c r="A11" s="1">
         <v>43100</v>
       </c>
@@ -1764,8 +1791,11 @@
       <c r="BA11">
         <v>1.551589743072856</v>
       </c>
+      <c r="BB11">
+        <v>1.551589743072856</v>
+      </c>
     </row>
-    <row r="12" spans="1:53">
+    <row r="12" spans="1:54">
       <c r="A12" s="1">
         <v>43465</v>
       </c>
@@ -1874,8 +1904,11 @@
       <c r="BA12">
         <v>1.455651414914461</v>
       </c>
+      <c r="BB12">
+        <v>1.455651414914461</v>
+      </c>
     </row>
-    <row r="13" spans="1:53">
+    <row r="13" spans="1:54">
       <c r="A13" s="1">
         <v>43830</v>
       </c>
@@ -1978,8 +2011,11 @@
       <c r="BA13">
         <v>2.211901852239651</v>
       </c>
+      <c r="BB13">
+        <v>2.211901852239651</v>
+      </c>
     </row>
-    <row r="14" spans="1:53">
+    <row r="14" spans="1:54">
       <c r="A14" s="1">
         <v>44196</v>
       </c>
@@ -2073,8 +2109,11 @@
       <c r="BA14">
         <v>3.454003806423267</v>
       </c>
+      <c r="BB14">
+        <v>3.454003806423267</v>
+      </c>
     </row>
-    <row r="15" spans="1:53">
+    <row r="15" spans="1:54">
       <c r="A15" s="1">
         <v>44561</v>
       </c>
@@ -2156,8 +2195,11 @@
       <c r="BA15">
         <v>2.895789704837681</v>
       </c>
+      <c r="BB15">
+        <v>2.895789704837681</v>
+      </c>
     </row>
-    <row r="16" spans="1:53">
+    <row r="16" spans="1:54">
       <c r="A16" s="1">
         <v>44926</v>
       </c>
@@ -2227,8 +2269,11 @@
       <c r="BA16">
         <v>0.486919784128137</v>
       </c>
+      <c r="BB16">
+        <v>0.486919784128137</v>
+      </c>
     </row>
-    <row r="17" spans="1:53">
+    <row r="17" spans="1:54">
       <c r="A17" s="1">
         <v>45291</v>
       </c>
@@ -2286,8 +2331,11 @@
       <c r="BA17">
         <v>-0.8339987268308979</v>
       </c>
+      <c r="BB17">
+        <v>-0.8339987268308979</v>
+      </c>
     </row>
-    <row r="18" spans="1:53">
+    <row r="18" spans="1:54">
       <c r="A18" s="1">
         <v>45657</v>
       </c>
@@ -2333,8 +2381,11 @@
       <c r="BA18">
         <v>2.721554796335779</v>
       </c>
+      <c r="BB18">
+        <v>2.721554796335779</v>
+      </c>
     </row>
-    <row r="19" spans="1:53">
+    <row r="19" spans="1:54">
       <c r="A19" s="1">
         <v>46022</v>
       </c>
@@ -2368,8 +2419,11 @@
       <c r="BA19">
         <v>2.496198905957403</v>
       </c>
+      <c r="BB19">
+        <v>2.622852459381209</v>
+      </c>
     </row>
-    <row r="20" spans="1:53">
+    <row r="20" spans="1:54">
       <c r="A20" s="1">
         <v>46387</v>
       </c>
@@ -2391,8 +2445,11 @@
       <c r="BA20">
         <v>1.9311765707138</v>
       </c>
+      <c r="BB20">
+        <v>1.946625946175717</v>
+      </c>
     </row>
-    <row r="21" spans="1:53">
+    <row r="21" spans="1:54">
       <c r="A21" s="1">
         <v>46752</v>
       </c>
@@ -2402,8 +2459,11 @@
       <c r="BA21">
         <v>2.010482122409574</v>
       </c>
+      <c r="BB21">
+        <v>2.030414939481551</v>
+      </c>
     </row>
-    <row r="22" spans="1:53">
+    <row r="22" spans="1:54">
       <c r="A22" s="1">
         <v>47118</v>
       </c>
